--- a/บัญชี+สต๊อกสินค้า 04-65.xlsx
+++ b/บัญชี+สต๊อกสินค้า 04-65.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="81">
   <si>
     <t>รายงาน ซื้อ ขาย สินค้า</t>
   </si>
@@ -305,7 +305,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1039,11 +1039,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,47 +1066,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1114,11 +1096,41 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="7" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,23 +1138,11 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="2" fillId="7" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="2" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1516,73 +1516,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
     </row>
     <row r="3" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="83" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="44" t="s">
@@ -1591,142 +1591,142 @@
       <c r="F4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="P4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="R4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="T4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="V4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="72" t="s">
+      <c r="W4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="X4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="72" t="s">
+      <c r="Y4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="Z4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="72" t="s">
+      <c r="AA4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="AB4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="72" t="s">
+      <c r="AC4" s="81" t="s">
         <v>38</v>
       </c>
       <c r="AD4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="72" t="s">
+      <c r="AE4" s="81" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="78"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="45">
         <v>242888</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="45">
         <v>242919</v>
       </c>
-      <c r="I5" s="73"/>
+      <c r="I5" s="82"/>
       <c r="J5" s="45">
         <v>242947</v>
       </c>
-      <c r="K5" s="73"/>
+      <c r="K5" s="82"/>
       <c r="L5" s="45">
         <v>242978</v>
       </c>
-      <c r="M5" s="73"/>
+      <c r="M5" s="82"/>
       <c r="N5" s="45">
         <v>243008</v>
       </c>
-      <c r="O5" s="73"/>
+      <c r="O5" s="82"/>
       <c r="P5" s="45">
         <v>243039</v>
       </c>
-      <c r="Q5" s="73"/>
+      <c r="Q5" s="82"/>
       <c r="R5" s="45">
         <v>243069</v>
       </c>
-      <c r="S5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="45">
         <v>243100</v>
       </c>
-      <c r="U5" s="73"/>
+      <c r="U5" s="82"/>
       <c r="V5" s="45">
         <v>243131</v>
       </c>
-      <c r="W5" s="73"/>
+      <c r="W5" s="82"/>
       <c r="X5" s="45">
         <v>243161</v>
       </c>
-      <c r="Y5" s="73"/>
+      <c r="Y5" s="82"/>
       <c r="Z5" s="45">
         <v>243192</v>
       </c>
-      <c r="AA5" s="73"/>
+      <c r="AA5" s="82"/>
       <c r="AB5" s="45">
         <v>243222</v>
       </c>
-      <c r="AC5" s="73"/>
+      <c r="AC5" s="82"/>
       <c r="AD5" s="45">
         <v>243253</v>
       </c>
-      <c r="AE5" s="73"/>
+      <c r="AE5" s="82"/>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -2925,6 +2925,16 @@
     <row r="217" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
@@ -2935,16 +2945,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="Y4:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3031,11 +3031,11 @@
       <c r="B7" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="105">
         <f>C6*10</f>
         <v>9000</v>
       </c>
-      <c r="D7" s="98"/>
+      <c r="D7" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3082,70 +3082,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
     </row>
     <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="A2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3196,10 +3196,10 @@
       <c r="P4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="96"/>
+      <c r="R4" s="90"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -3242,8 +3242,8 @@
         <v>-35</v>
       </c>
       <c r="P5" s="60"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="92"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -3286,8 +3286,8 @@
         <v>-85</v>
       </c>
       <c r="P6" s="60"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -3328,8 +3328,8 @@
         <v>0</v>
       </c>
       <c r="P7" s="60"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="84"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -3365,8 +3365,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="60"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -3402,8 +3402,8 @@
         <v>0</v>
       </c>
       <c r="P9" s="60"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -3445,8 +3445,8 @@
         <v>-250</v>
       </c>
       <c r="P10" s="60"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -3489,8 +3489,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="63"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
     </row>
     <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -3533,8 +3533,8 @@
         <v>0</v>
       </c>
       <c r="P12" s="63"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
     </row>
     <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -3575,8 +3575,8 @@
         <v>0</v>
       </c>
       <c r="P13" s="63"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="86"/>
     </row>
     <row r="14" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -3617,8 +3617,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="63"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="86"/>
     </row>
     <row r="15" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -3659,8 +3659,8 @@
         <v>0</v>
       </c>
       <c r="P15" s="63"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
     </row>
     <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -3701,8 +3701,8 @@
         <v>0</v>
       </c>
       <c r="P16" s="63"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86"/>
     </row>
     <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -3743,8 +3743,8 @@
         <v>0</v>
       </c>
       <c r="P17" s="63"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
     </row>
     <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -3785,8 +3785,8 @@
         <v>0</v>
       </c>
       <c r="P18" s="63"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="86"/>
     </row>
     <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -3827,8 +3827,8 @@
         <v>0</v>
       </c>
       <c r="P19" s="63"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="86"/>
     </row>
     <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -3869,8 +3869,8 @@
         <v>0</v>
       </c>
       <c r="P20" s="63"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
     </row>
     <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -3911,8 +3911,8 @@
         <v>0</v>
       </c>
       <c r="P21" s="63"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="86"/>
     </row>
     <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -3953,8 +3953,8 @@
         <v>0</v>
       </c>
       <c r="P22" s="63"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
     </row>
     <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -3995,8 +3995,8 @@
         <v>0</v>
       </c>
       <c r="P23" s="63"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
     </row>
     <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -4037,8 +4037,8 @@
         <v>0</v>
       </c>
       <c r="P24" s="63"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
     </row>
     <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -4071,8 +4071,8 @@
         <v>0</v>
       </c>
       <c r="P25" s="63"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="86"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -4105,8 +4105,8 @@
         <v>0</v>
       </c>
       <c r="P26" s="60"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -4139,8 +4139,8 @@
         <v>0</v>
       </c>
       <c r="P27" s="60"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -4173,8 +4173,8 @@
         <v>0</v>
       </c>
       <c r="P28" s="60"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -4207,8 +4207,8 @@
         <v>0</v>
       </c>
       <c r="P29" s="60"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -4241,8 +4241,8 @@
         <v>0</v>
       </c>
       <c r="P30" s="60"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -4275,8 +4275,8 @@
         <v>0</v>
       </c>
       <c r="P31" s="60"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -4309,8 +4309,8 @@
         <v>0</v>
       </c>
       <c r="P32" s="60"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -4343,8 +4343,8 @@
         <v>0</v>
       </c>
       <c r="P33" s="60"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -4377,8 +4377,8 @@
         <v>0</v>
       </c>
       <c r="P34" s="60"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -4411,8 +4411,8 @@
         <v>0</v>
       </c>
       <c r="P35" s="60"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -4445,8 +4445,8 @@
         <v>0</v>
       </c>
       <c r="P36" s="60"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="84"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="92"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -4479,8 +4479,8 @@
         <v>0</v>
       </c>
       <c r="P37" s="60"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="84"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="92"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -4513,8 +4513,8 @@
         <v>0</v>
       </c>
       <c r="P38" s="60"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="84"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="92"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -4547,8 +4547,8 @@
         <v>0</v>
       </c>
       <c r="P39" s="60"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="84"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="92"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -4581,8 +4581,8 @@
         <v>0</v>
       </c>
       <c r="P40" s="60"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="84"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="92"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -4615,8 +4615,8 @@
         <v>0</v>
       </c>
       <c r="P41" s="60"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="84"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="92"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
@@ -4649,8 +4649,8 @@
         <v>0</v>
       </c>
       <c r="P42" s="60"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="84"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="92"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -4683,8 +4683,8 @@
         <v>0</v>
       </c>
       <c r="P43" s="60"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="84"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="92"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -4717,8 +4717,8 @@
         <v>0</v>
       </c>
       <c r="P44" s="60"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="84"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="92"/>
     </row>
     <row r="45" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -4757,8 +4757,8 @@
       <c r="P45" s="60">
         <v>0</v>
       </c>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="84"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="92"/>
     </row>
     <row r="46" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
@@ -4794,18 +4794,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="86"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="102"/>
     </row>
     <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
       <c r="G47" s="30">
         <f>SUBTOTAL(9,G5:G46)</f>
         <v>32300</v>
@@ -4855,10 +4855,10 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="N48" s="89" t="s">
+      <c r="N48" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="O48" s="90"/>
+      <c r="O48" s="96"/>
       <c r="P48" s="37">
         <f>+J47</f>
         <v>5460</v>
@@ -4878,10 +4878,10 @@
       <c r="K49" s="1"/>
       <c r="L49" s="36"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="79" t="s">
+      <c r="N49" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="80"/>
+      <c r="O49" s="98"/>
       <c r="P49" s="38">
         <f>+O47</f>
         <v>-370</v>
@@ -4901,30 +4901,30 @@
       <c r="K50" s="1"/>
       <c r="L50" s="36"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="79" t="s">
+      <c r="N50" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="80"/>
+      <c r="O50" s="98"/>
       <c r="P50" s="41">
         <f>+P48+P49</f>
         <v>5090</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N51" s="79" t="s">
+      <c r="N51" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="O51" s="80"/>
+      <c r="O51" s="98"/>
       <c r="P51" s="38">
         <f>+P47</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="81" t="s">
+      <c r="N52" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="O52" s="82"/>
+      <c r="O52" s="100"/>
       <c r="P52" s="42">
         <f>+P50+P51</f>
         <v>5090</v>
@@ -4933,6 +4933,46 @@
   </sheetData>
   <autoFilter ref="A4:K52"/>
   <mergeCells count="52">
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
@@ -4945,46 +4985,6 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K7">
@@ -5036,70 +5036,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
     </row>
     <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="A2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -5150,10 +5150,10 @@
       <c r="P4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="96"/>
+      <c r="R4" s="90"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -5196,8 +5196,8 @@
         <v>-35</v>
       </c>
       <c r="P5" s="60"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="92"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -5240,8 +5240,8 @@
         <v>-85</v>
       </c>
       <c r="P6" s="60"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -5282,8 +5282,8 @@
         <v>0</v>
       </c>
       <c r="P7" s="60"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="84"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -5319,8 +5319,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="60"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -5356,8 +5356,8 @@
         <v>0</v>
       </c>
       <c r="P9" s="60"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -5399,8 +5399,8 @@
         <v>-250</v>
       </c>
       <c r="P10" s="60"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -5443,8 +5443,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="63"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
     </row>
     <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -5487,8 +5487,8 @@
         <v>0</v>
       </c>
       <c r="P12" s="63"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
     </row>
     <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -5529,8 +5529,8 @@
         <v>0</v>
       </c>
       <c r="P13" s="63"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="86"/>
     </row>
     <row r="14" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -5571,8 +5571,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="63"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="86"/>
     </row>
     <row r="15" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -5613,8 +5613,8 @@
         <v>0</v>
       </c>
       <c r="P15" s="63"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
     </row>
     <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -5655,8 +5655,8 @@
         <v>0</v>
       </c>
       <c r="P16" s="63"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86"/>
     </row>
     <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -5697,8 +5697,8 @@
         <v>0</v>
       </c>
       <c r="P17" s="63"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
     </row>
     <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -5739,8 +5739,8 @@
         <v>0</v>
       </c>
       <c r="P18" s="63"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="86"/>
     </row>
     <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -5781,8 +5781,8 @@
         <v>0</v>
       </c>
       <c r="P19" s="63"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="86"/>
     </row>
     <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -5823,8 +5823,8 @@
         <v>0</v>
       </c>
       <c r="P20" s="63"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
     </row>
     <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -5865,8 +5865,8 @@
         <v>0</v>
       </c>
       <c r="P21" s="63"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="86"/>
     </row>
     <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -5907,8 +5907,8 @@
         <v>0</v>
       </c>
       <c r="P22" s="63"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
     </row>
     <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -5949,8 +5949,8 @@
         <v>0</v>
       </c>
       <c r="P23" s="63"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
     </row>
     <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -5991,8 +5991,8 @@
         <v>0</v>
       </c>
       <c r="P24" s="63"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
     </row>
     <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -6025,8 +6025,8 @@
         <v>0</v>
       </c>
       <c r="P25" s="63"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="86"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -6059,8 +6059,8 @@
         <v>0</v>
       </c>
       <c r="P26" s="60"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -6093,8 +6093,8 @@
         <v>0</v>
       </c>
       <c r="P27" s="60"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -6127,8 +6127,8 @@
         <v>0</v>
       </c>
       <c r="P28" s="60"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -6161,8 +6161,8 @@
         <v>0</v>
       </c>
       <c r="P29" s="60"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -6195,8 +6195,8 @@
         <v>0</v>
       </c>
       <c r="P30" s="60"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -6229,8 +6229,8 @@
         <v>0</v>
       </c>
       <c r="P31" s="60"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -6263,8 +6263,8 @@
         <v>0</v>
       </c>
       <c r="P32" s="60"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -6297,8 +6297,8 @@
         <v>0</v>
       </c>
       <c r="P33" s="60"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -6331,8 +6331,8 @@
         <v>0</v>
       </c>
       <c r="P34" s="60"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -6365,8 +6365,8 @@
         <v>0</v>
       </c>
       <c r="P35" s="60"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -6399,8 +6399,8 @@
         <v>0</v>
       </c>
       <c r="P36" s="60"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="84"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="92"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -6433,8 +6433,8 @@
         <v>0</v>
       </c>
       <c r="P37" s="60"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="84"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="92"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -6467,8 +6467,8 @@
         <v>0</v>
       </c>
       <c r="P38" s="60"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="84"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="92"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -6501,8 +6501,8 @@
         <v>0</v>
       </c>
       <c r="P39" s="60"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="84"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="92"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -6535,8 +6535,8 @@
         <v>0</v>
       </c>
       <c r="P40" s="60"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="84"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="92"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -6569,8 +6569,8 @@
         <v>0</v>
       </c>
       <c r="P41" s="60"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="84"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="92"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
@@ -6603,8 +6603,8 @@
         <v>0</v>
       </c>
       <c r="P42" s="60"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="84"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="92"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -6637,8 +6637,8 @@
         <v>0</v>
       </c>
       <c r="P43" s="60"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="84"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="92"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -6671,8 +6671,8 @@
         <v>0</v>
       </c>
       <c r="P44" s="60"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="84"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="92"/>
     </row>
     <row r="45" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -6711,8 +6711,8 @@
       <c r="P45" s="60">
         <v>0</v>
       </c>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="84"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="92"/>
     </row>
     <row r="46" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
@@ -6748,18 +6748,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="86"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="102"/>
     </row>
     <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
       <c r="G47" s="30">
         <f>SUBTOTAL(9,G5:G46)</f>
         <v>32300</v>
@@ -6809,10 +6809,10 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="N48" s="89" t="s">
+      <c r="N48" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="O48" s="90"/>
+      <c r="O48" s="96"/>
       <c r="P48" s="37">
         <f>+J47</f>
         <v>5460</v>
@@ -6832,10 +6832,10 @@
       <c r="K49" s="1"/>
       <c r="L49" s="36"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="79" t="s">
+      <c r="N49" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="80"/>
+      <c r="O49" s="98"/>
       <c r="P49" s="38">
         <f>+O47</f>
         <v>-370</v>
@@ -6855,30 +6855,30 @@
       <c r="K50" s="1"/>
       <c r="L50" s="36"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="79" t="s">
+      <c r="N50" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="80"/>
+      <c r="O50" s="98"/>
       <c r="P50" s="41">
         <f>+P48+P49</f>
         <v>5090</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N51" s="79" t="s">
+      <c r="N51" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="O51" s="80"/>
+      <c r="O51" s="98"/>
       <c r="P51" s="38">
         <f>+P47</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="81" t="s">
+      <c r="N52" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="O52" s="82"/>
+      <c r="O52" s="100"/>
       <c r="P52" s="42">
         <f>+P50+P51</f>
         <v>5090</v>
@@ -6887,6 +6887,46 @@
   </sheetData>
   <autoFilter ref="A4:K52"/>
   <mergeCells count="52">
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
@@ -6899,46 +6939,6 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K7">
@@ -6987,70 +6987,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
     </row>
     <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="A2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -7101,10 +7101,10 @@
       <c r="P4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="96"/>
+      <c r="R4" s="90"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -7139,8 +7139,8 @@
         <v>0</v>
       </c>
       <c r="P5" s="60"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="92"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -7175,8 +7175,8 @@
         <v>0</v>
       </c>
       <c r="P6" s="60"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -7211,8 +7211,8 @@
         <v>0</v>
       </c>
       <c r="P7" s="60"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="84"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -7245,8 +7245,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="60"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -7279,8 +7279,8 @@
         <v>0</v>
       </c>
       <c r="P9" s="60"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -7313,8 +7313,8 @@
         <v>0</v>
       </c>
       <c r="P10" s="60"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -7347,8 +7347,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="63"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
     </row>
     <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -7381,8 +7381,8 @@
         <v>0</v>
       </c>
       <c r="P12" s="63"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
     </row>
     <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -7415,8 +7415,8 @@
         <v>0</v>
       </c>
       <c r="P13" s="63"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="86"/>
     </row>
     <row r="14" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -7449,8 +7449,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="63"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="86"/>
     </row>
     <row r="15" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -7483,8 +7483,8 @@
         <v>0</v>
       </c>
       <c r="P15" s="63"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
     </row>
     <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -7517,8 +7517,8 @@
         <v>0</v>
       </c>
       <c r="P16" s="63"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86"/>
     </row>
     <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -7551,8 +7551,8 @@
         <v>0</v>
       </c>
       <c r="P17" s="63"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
     </row>
     <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -7585,8 +7585,8 @@
         <v>0</v>
       </c>
       <c r="P18" s="63"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="86"/>
     </row>
     <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -7619,8 +7619,8 @@
         <v>0</v>
       </c>
       <c r="P19" s="63"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="86"/>
     </row>
     <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -7653,8 +7653,8 @@
         <v>0</v>
       </c>
       <c r="P20" s="63"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
     </row>
     <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -7687,8 +7687,8 @@
         <v>0</v>
       </c>
       <c r="P21" s="63"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="86"/>
     </row>
     <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -7721,8 +7721,8 @@
         <v>0</v>
       </c>
       <c r="P22" s="63"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
     </row>
     <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -7755,8 +7755,8 @@
         <v>0</v>
       </c>
       <c r="P23" s="63"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
     </row>
     <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -7789,8 +7789,8 @@
         <v>0</v>
       </c>
       <c r="P24" s="63"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
     </row>
     <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -7823,8 +7823,8 @@
         <v>0</v>
       </c>
       <c r="P25" s="63"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="86"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -7857,8 +7857,8 @@
         <v>0</v>
       </c>
       <c r="P26" s="60"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -7891,8 +7891,8 @@
         <v>0</v>
       </c>
       <c r="P27" s="60"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -7925,8 +7925,8 @@
         <v>0</v>
       </c>
       <c r="P28" s="60"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -7959,8 +7959,8 @@
         <v>0</v>
       </c>
       <c r="P29" s="60"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -7993,8 +7993,8 @@
         <v>0</v>
       </c>
       <c r="P30" s="60"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -8027,8 +8027,8 @@
         <v>0</v>
       </c>
       <c r="P31" s="60"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -8061,8 +8061,8 @@
         <v>0</v>
       </c>
       <c r="P32" s="60"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -8095,8 +8095,8 @@
         <v>0</v>
       </c>
       <c r="P33" s="60"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -8129,8 +8129,8 @@
         <v>0</v>
       </c>
       <c r="P34" s="60"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -8163,8 +8163,8 @@
         <v>0</v>
       </c>
       <c r="P35" s="60"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -8197,8 +8197,8 @@
         <v>0</v>
       </c>
       <c r="P36" s="60"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="84"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="92"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -8231,8 +8231,8 @@
         <v>0</v>
       </c>
       <c r="P37" s="60"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="84"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="92"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -8265,8 +8265,8 @@
         <v>0</v>
       </c>
       <c r="P38" s="60"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="84"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="92"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -8299,8 +8299,8 @@
         <v>0</v>
       </c>
       <c r="P39" s="60"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="84"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="92"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -8333,8 +8333,8 @@
         <v>0</v>
       </c>
       <c r="P40" s="60"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="84"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="92"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -8367,8 +8367,8 @@
         <v>0</v>
       </c>
       <c r="P41" s="60"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="84"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="92"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
@@ -8401,8 +8401,8 @@
         <v>0</v>
       </c>
       <c r="P42" s="60"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="84"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="92"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -8435,8 +8435,8 @@
         <v>0</v>
       </c>
       <c r="P43" s="60"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="84"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="92"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -8469,8 +8469,8 @@
         <v>0</v>
       </c>
       <c r="P44" s="60"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="84"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="92"/>
     </row>
     <row r="45" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -8509,8 +8509,8 @@
       <c r="P45" s="60">
         <v>0</v>
       </c>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="84"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="92"/>
     </row>
     <row r="46" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
@@ -8546,18 +8546,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="86"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="102"/>
     </row>
     <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
       <c r="G47" s="30">
         <f>SUBTOTAL(9,G5:G46)</f>
         <v>0</v>
@@ -8607,10 +8607,10 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="N48" s="89" t="s">
+      <c r="N48" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="O48" s="90"/>
+      <c r="O48" s="96"/>
       <c r="P48" s="37">
         <f>+J47</f>
         <v>0</v>
@@ -8630,10 +8630,10 @@
       <c r="K49" s="1"/>
       <c r="L49" s="36"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="79" t="s">
+      <c r="N49" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="80"/>
+      <c r="O49" s="98"/>
       <c r="P49" s="38">
         <f>+O47</f>
         <v>0</v>
@@ -8653,30 +8653,30 @@
       <c r="K50" s="1"/>
       <c r="L50" s="36"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="79" t="s">
+      <c r="N50" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="80"/>
+      <c r="O50" s="98"/>
       <c r="P50" s="41">
         <f>+P48+P49</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N51" s="79" t="s">
+      <c r="N51" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="O51" s="80"/>
+      <c r="O51" s="98"/>
       <c r="P51" s="38">
         <f>+P47</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="81" t="s">
+      <c r="N52" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="O52" s="82"/>
+      <c r="O52" s="100"/>
       <c r="P52" s="42">
         <f>+P50+P51</f>
         <v>0</v>
@@ -8685,6 +8685,46 @@
   </sheetData>
   <autoFilter ref="A4:K52"/>
   <mergeCells count="52">
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
@@ -8697,46 +8737,6 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K7">
@@ -8785,70 +8785,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
     </row>
     <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="A2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -8899,10 +8899,10 @@
       <c r="P4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="96"/>
+      <c r="R4" s="90"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -8937,8 +8937,8 @@
         <v>0</v>
       </c>
       <c r="P5" s="60"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="92"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -8973,8 +8973,8 @@
         <v>0</v>
       </c>
       <c r="P6" s="60"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -9009,8 +9009,8 @@
         <v>0</v>
       </c>
       <c r="P7" s="60"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="84"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -9043,8 +9043,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="60"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -9077,8 +9077,8 @@
         <v>0</v>
       </c>
       <c r="P9" s="60"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -9111,8 +9111,8 @@
         <v>0</v>
       </c>
       <c r="P10" s="60"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -9145,8 +9145,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="63"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
     </row>
     <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -9179,8 +9179,8 @@
         <v>0</v>
       </c>
       <c r="P12" s="63"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
     </row>
     <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -9213,8 +9213,8 @@
         <v>0</v>
       </c>
       <c r="P13" s="63"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="86"/>
     </row>
     <row r="14" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -9247,8 +9247,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="63"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="86"/>
     </row>
     <row r="15" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -9281,8 +9281,8 @@
         <v>0</v>
       </c>
       <c r="P15" s="63"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
     </row>
     <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -9315,8 +9315,8 @@
         <v>0</v>
       </c>
       <c r="P16" s="63"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86"/>
     </row>
     <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -9349,8 +9349,8 @@
         <v>0</v>
       </c>
       <c r="P17" s="63"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
     </row>
     <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -9383,8 +9383,8 @@
         <v>0</v>
       </c>
       <c r="P18" s="63"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="86"/>
     </row>
     <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -9417,8 +9417,8 @@
         <v>0</v>
       </c>
       <c r="P19" s="63"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="86"/>
     </row>
     <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -9451,8 +9451,8 @@
         <v>0</v>
       </c>
       <c r="P20" s="63"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
     </row>
     <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -9485,8 +9485,8 @@
         <v>0</v>
       </c>
       <c r="P21" s="63"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="86"/>
     </row>
     <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -9519,8 +9519,8 @@
         <v>0</v>
       </c>
       <c r="P22" s="63"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
     </row>
     <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -9553,8 +9553,8 @@
         <v>0</v>
       </c>
       <c r="P23" s="63"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
     </row>
     <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -9587,8 +9587,8 @@
         <v>0</v>
       </c>
       <c r="P24" s="63"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
     </row>
     <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -9621,8 +9621,8 @@
         <v>0</v>
       </c>
       <c r="P25" s="63"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="86"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -9655,8 +9655,8 @@
         <v>0</v>
       </c>
       <c r="P26" s="60"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -9689,8 +9689,8 @@
         <v>0</v>
       </c>
       <c r="P27" s="60"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -9723,8 +9723,8 @@
         <v>0</v>
       </c>
       <c r="P28" s="60"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -9757,8 +9757,8 @@
         <v>0</v>
       </c>
       <c r="P29" s="60"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -9791,8 +9791,8 @@
         <v>0</v>
       </c>
       <c r="P30" s="60"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -9825,8 +9825,8 @@
         <v>0</v>
       </c>
       <c r="P31" s="60"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -9859,8 +9859,8 @@
         <v>0</v>
       </c>
       <c r="P32" s="60"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -9893,8 +9893,8 @@
         <v>0</v>
       </c>
       <c r="P33" s="60"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -9927,8 +9927,8 @@
         <v>0</v>
       </c>
       <c r="P34" s="60"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -9961,8 +9961,8 @@
         <v>0</v>
       </c>
       <c r="P35" s="60"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -9995,8 +9995,8 @@
         <v>0</v>
       </c>
       <c r="P36" s="60"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="84"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="92"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -10029,8 +10029,8 @@
         <v>0</v>
       </c>
       <c r="P37" s="60"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="84"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="92"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -10063,8 +10063,8 @@
         <v>0</v>
       </c>
       <c r="P38" s="60"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="84"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="92"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -10097,8 +10097,8 @@
         <v>0</v>
       </c>
       <c r="P39" s="60"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="84"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="92"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -10131,8 +10131,8 @@
         <v>0</v>
       </c>
       <c r="P40" s="60"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="84"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="92"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -10165,8 +10165,8 @@
         <v>0</v>
       </c>
       <c r="P41" s="60"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="84"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="92"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
@@ -10199,8 +10199,8 @@
         <v>0</v>
       </c>
       <c r="P42" s="60"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="84"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="92"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -10233,8 +10233,8 @@
         <v>0</v>
       </c>
       <c r="P43" s="60"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="84"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="92"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -10267,8 +10267,8 @@
         <v>0</v>
       </c>
       <c r="P44" s="60"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="84"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="92"/>
     </row>
     <row r="45" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -10307,8 +10307,8 @@
       <c r="P45" s="60">
         <v>0</v>
       </c>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="84"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="92"/>
     </row>
     <row r="46" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
@@ -10344,18 +10344,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="86"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="102"/>
     </row>
     <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
       <c r="G47" s="30">
         <f>SUBTOTAL(9,G5:G46)</f>
         <v>0</v>
@@ -10405,10 +10405,10 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="N48" s="89" t="s">
+      <c r="N48" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="O48" s="90"/>
+      <c r="O48" s="96"/>
       <c r="P48" s="37">
         <f>+J47</f>
         <v>0</v>
@@ -10428,10 +10428,10 @@
       <c r="K49" s="1"/>
       <c r="L49" s="36"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="79" t="s">
+      <c r="N49" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="80"/>
+      <c r="O49" s="98"/>
       <c r="P49" s="38">
         <f>+O47</f>
         <v>0</v>
@@ -10451,30 +10451,30 @@
       <c r="K50" s="1"/>
       <c r="L50" s="36"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="79" t="s">
+      <c r="N50" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="80"/>
+      <c r="O50" s="98"/>
       <c r="P50" s="41">
         <f>+P48+P49</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N51" s="79" t="s">
+      <c r="N51" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="O51" s="80"/>
+      <c r="O51" s="98"/>
       <c r="P51" s="38">
         <f>+P47</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="81" t="s">
+      <c r="N52" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="O52" s="82"/>
+      <c r="O52" s="100"/>
       <c r="P52" s="42">
         <f>+P50+P51</f>
         <v>0</v>
@@ -10483,6 +10483,46 @@
   </sheetData>
   <autoFilter ref="A4:K52"/>
   <mergeCells count="52">
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
@@ -10495,46 +10535,6 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K7">
@@ -10626,11 +10626,11 @@
       <c r="B7" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="103">
         <f>C6*10</f>
         <v>7000</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10648,10 +10648,10 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -10677,70 +10677,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
     </row>
     <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="A2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -10791,10 +10791,10 @@
       <c r="P4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="96"/>
+      <c r="R4" s="90"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -10839,8 +10839,8 @@
         <v>0</v>
       </c>
       <c r="P5" s="60"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="92"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -10887,8 +10887,8 @@
         <v>0</v>
       </c>
       <c r="P6" s="60"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -10935,8 +10935,8 @@
         <v>0</v>
       </c>
       <c r="P7" s="60"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="84"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -10983,8 +10983,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="60"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -11031,8 +11031,8 @@
         <v>0</v>
       </c>
       <c r="P9" s="60"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -11079,8 +11079,8 @@
         <v>0</v>
       </c>
       <c r="P10" s="60"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -11104,15 +11104,15 @@
         <v>4800</v>
       </c>
       <c r="H11" s="22">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I11" s="22">
         <f t="shared" si="1"/>
-        <v>5700</v>
+        <v>5550</v>
       </c>
       <c r="J11" s="22">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="56"/>
@@ -11123,8 +11123,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="63"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
     </row>
     <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -11167,8 +11167,8 @@
         <v>0</v>
       </c>
       <c r="P12" s="63"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
     </row>
     <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -11211,8 +11211,8 @@
         <v>0</v>
       </c>
       <c r="P13" s="63"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="86"/>
     </row>
     <row r="14" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -11255,8 +11255,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="63"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="86"/>
     </row>
     <row r="15" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -11299,8 +11299,8 @@
         <v>0</v>
       </c>
       <c r="P15" s="63"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
     </row>
     <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -11333,8 +11333,8 @@
         <v>0</v>
       </c>
       <c r="P16" s="63"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86"/>
     </row>
     <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -11367,8 +11367,8 @@
         <v>0</v>
       </c>
       <c r="P17" s="63"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
     </row>
     <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -11401,8 +11401,8 @@
         <v>0</v>
       </c>
       <c r="P18" s="63"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="86"/>
     </row>
     <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -11435,8 +11435,8 @@
         <v>0</v>
       </c>
       <c r="P19" s="63"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="86"/>
     </row>
     <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -11469,8 +11469,8 @@
         <v>0</v>
       </c>
       <c r="P20" s="63"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
     </row>
     <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -11503,8 +11503,8 @@
         <v>0</v>
       </c>
       <c r="P21" s="63"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="86"/>
     </row>
     <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -11537,8 +11537,8 @@
         <v>0</v>
       </c>
       <c r="P22" s="63"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
     </row>
     <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -11571,8 +11571,8 @@
         <v>0</v>
       </c>
       <c r="P23" s="63"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
     </row>
     <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -11605,8 +11605,8 @@
         <v>0</v>
       </c>
       <c r="P24" s="63"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
     </row>
     <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -11639,8 +11639,8 @@
         <v>0</v>
       </c>
       <c r="P25" s="63"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="86"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -11673,8 +11673,8 @@
         <v>0</v>
       </c>
       <c r="P26" s="60"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -11707,8 +11707,8 @@
         <v>0</v>
       </c>
       <c r="P27" s="60"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -11741,8 +11741,8 @@
         <v>0</v>
       </c>
       <c r="P28" s="60"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -11775,8 +11775,8 @@
         <v>0</v>
       </c>
       <c r="P29" s="60"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -11809,8 +11809,8 @@
         <v>0</v>
       </c>
       <c r="P30" s="60"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -11843,8 +11843,8 @@
         <v>0</v>
       </c>
       <c r="P31" s="60"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -11877,8 +11877,8 @@
         <v>0</v>
       </c>
       <c r="P32" s="60"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -11911,8 +11911,8 @@
         <v>0</v>
       </c>
       <c r="P33" s="60"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -11945,8 +11945,8 @@
         <v>0</v>
       </c>
       <c r="P34" s="60"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -11979,8 +11979,8 @@
         <v>0</v>
       </c>
       <c r="P35" s="60"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -12013,8 +12013,8 @@
         <v>0</v>
       </c>
       <c r="P36" s="60"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="84"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="92"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -12047,8 +12047,8 @@
         <v>0</v>
       </c>
       <c r="P37" s="60"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="84"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="92"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -12081,8 +12081,8 @@
         <v>0</v>
       </c>
       <c r="P38" s="60"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="84"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="92"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -12115,8 +12115,8 @@
         <v>0</v>
       </c>
       <c r="P39" s="60"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="84"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="92"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -12149,8 +12149,8 @@
         <v>0</v>
       </c>
       <c r="P40" s="60"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="84"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="92"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -12183,8 +12183,8 @@
         <v>0</v>
       </c>
       <c r="P41" s="60"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="84"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="92"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
@@ -12217,8 +12217,8 @@
         <v>0</v>
       </c>
       <c r="P42" s="60"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="84"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="92"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -12251,8 +12251,8 @@
         <v>0</v>
       </c>
       <c r="P43" s="60"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="84"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="92"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -12285,8 +12285,8 @@
         <v>0</v>
       </c>
       <c r="P44" s="60"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="84"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="92"/>
     </row>
     <row r="45" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -12325,8 +12325,8 @@
       <c r="P45" s="60">
         <v>0</v>
       </c>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="84"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="92"/>
     </row>
     <row r="46" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
@@ -12362,18 +12362,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="86"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="102"/>
     </row>
     <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
       <c r="G47" s="30">
         <f>SUBTOTAL(9,G5:G46)</f>
         <v>53600</v>
@@ -12383,11 +12383,11 @@
       </c>
       <c r="I47" s="30">
         <f>SUBTOTAL(9,I5:I46)</f>
-        <v>59230</v>
+        <v>59080</v>
       </c>
       <c r="J47" s="30">
         <f>SUBTOTAL(9,J5:J46)</f>
-        <v>5630</v>
+        <v>5480</v>
       </c>
       <c r="K47" s="32" t="s">
         <v>27</v>
@@ -12423,13 +12423,13 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="N48" s="89" t="s">
+      <c r="N48" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="O48" s="90"/>
+      <c r="O48" s="96"/>
       <c r="P48" s="37">
         <f>+J47</f>
-        <v>5630</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12446,10 +12446,10 @@
       <c r="K49" s="1"/>
       <c r="L49" s="36"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="79" t="s">
+      <c r="N49" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="80"/>
+      <c r="O49" s="98"/>
       <c r="P49" s="38">
         <f>+O47</f>
         <v>0</v>
@@ -12469,79 +12469,1947 @@
       <c r="K50" s="1"/>
       <c r="L50" s="36"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="79" t="s">
+      <c r="N50" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="80"/>
+      <c r="O50" s="98"/>
       <c r="P50" s="41">
         <f>+P48+P49</f>
-        <v>5630</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N51" s="79" t="s">
+      <c r="N51" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="O51" s="80"/>
+      <c r="O51" s="98"/>
       <c r="P51" s="38">
         <f>+P47</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="81" t="s">
+      <c r="N52" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="O52" s="82"/>
+      <c r="O52" s="100"/>
       <c r="P52" s="42">
         <f>+P50+P51</f>
-        <v>5630</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="105" t="s">
+      <c r="B53" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="104">
+      <c r="C53" s="75">
         <v>48000</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B54" s="105" t="s">
+      <c r="B54" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="104">
-        <v>16690</v>
+      <c r="C54" s="75">
+        <v>16540</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="105" t="s">
+      <c r="B55" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="106">
+      <c r="C55" s="77">
         <f>C53-C54</f>
-        <v>31310</v>
+        <v>31460</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
     </row>
     <row r="57" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="101"/>
-      <c r="C58" s="102"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="73"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="101"/>
-      <c r="C59" s="102"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="73"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="101"/>
-      <c r="C60" s="102"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="73"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:K52"/>
+  <mergeCells count="52">
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K46">
+      <formula1>"นัดรับ,Facebook,Shopee,Line"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="36" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+    </row>
+    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+    </row>
+    <row r="3" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+    </row>
+    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="90"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="16">
+        <v>160</v>
+      </c>
+      <c r="F5" s="17">
+        <v>10</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" ref="G5:G46" si="0">SUM(E5*F5)</f>
+        <v>1600</v>
+      </c>
+      <c r="H5" s="16">
+        <v>199</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" ref="I5:I14" si="1">+F5*H5</f>
+        <v>1990</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" ref="J5:J46" si="2">+I5-G5</f>
+        <v>390</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="62">
+        <f t="shared" ref="O5:O10" si="3">+M5-N5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="92"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="16">
+        <v>160</v>
+      </c>
+      <c r="F6" s="17">
+        <v>120</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>19200</v>
+      </c>
+      <c r="H6" s="16">
+        <v>170</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="1"/>
+        <v>20400</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="16">
+        <v>160</v>
+      </c>
+      <c r="F7" s="17">
+        <v>30</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="H7" s="16">
+        <v>170</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="1"/>
+        <v>5100</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="16">
+        <v>160</v>
+      </c>
+      <c r="F8" s="17">
+        <v>50</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="H8" s="16">
+        <v>170</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="1"/>
+        <v>8500</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="16">
+        <v>160</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="H9" s="16">
+        <v>170</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="16">
+        <v>160</v>
+      </c>
+      <c r="F10" s="17">
+        <v>25</v>
+      </c>
+      <c r="G10" s="16">
+        <f>SUM(E10*F10)</f>
+        <v>4000</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="2"/>
+        <v>-4000</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
+    </row>
+    <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>7</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="16">
+        <v>160</v>
+      </c>
+      <c r="F11" s="23">
+        <v>5</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" ref="G11:G33" si="4">SUM(E11*F11)</f>
+        <v>800</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="2"/>
+        <v>-800</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="62">
+        <f>+M11-N11</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
+    </row>
+    <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="62">
+        <f t="shared" ref="O12:P46" si="5">+M12-N12</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
+    </row>
+    <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="86"/>
+    </row>
+    <row r="14" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="86"/>
+    </row>
+    <row r="15" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22">
+        <f>+F15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
+    </row>
+    <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22">
+        <f>+F16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86"/>
+    </row>
+    <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22">
+        <f t="shared" ref="I17:I46" si="6">+F17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
+    </row>
+    <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="86"/>
+    </row>
+    <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>15</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="86"/>
+    </row>
+    <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>16</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
+    </row>
+    <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="86"/>
+    </row>
+    <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
+    </row>
+    <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>19</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
+    </row>
+    <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>20</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
+    </row>
+    <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>21</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="86"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>23</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>24</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>26</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>27</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>28</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>29</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>30</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>31</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>32</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="92"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>33</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="18"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="92"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>34</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="92"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>35</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="92"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>36</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="92"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>37</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="92"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>38</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="92"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>39</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="92"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>40</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="92"/>
+    </row>
+    <row r="45" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>41</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="58">
+        <v>0</v>
+      </c>
+      <c r="N45" s="48">
+        <v>0</v>
+      </c>
+      <c r="O45" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="92"/>
+    </row>
+    <row r="46" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>42</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="18"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="102"/>
+    </row>
+    <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="30">
+        <f>SUBTOTAL(9,G5:G46)</f>
+        <v>39200</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="30">
+        <f>SUBTOTAL(9,I5:I46)</f>
+        <v>36840</v>
+      </c>
+      <c r="J47" s="30">
+        <f>SUBTOTAL(9,J5:J46)</f>
+        <v>-2360</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" s="30">
+        <f>SUBTOTAL(9,L5:L46)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="30">
+        <f>SUBTOTAL(9,M5:M46)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="30">
+        <f>SUBTOTAL(9,N5:N46)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="33">
+        <f>SUBTOTAL(9,O5:O46)</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="33">
+        <f>SUBTOTAL(9,P5:P46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="N48" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="96"/>
+      <c r="P48" s="37">
+        <f>+J47</f>
+        <v>-2360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" s="98"/>
+      <c r="P49" s="38">
+        <f>+O47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" s="98"/>
+      <c r="P50" s="41">
+        <f>+P48+P49</f>
+        <v>-2360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" s="98"/>
+      <c r="P51" s="38">
+        <f>+P47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N52" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" s="100"/>
+      <c r="P52" s="42">
+        <f>+P50+P51</f>
+        <v>-2360</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:K52"/>
@@ -12609,7 +14477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -12617,10 +14485,10 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -12646,70 +14514,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
     </row>
     <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="A2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -12760,10 +14628,10 @@
       <c r="P4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="96"/>
+      <c r="R4" s="90"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -12808,8 +14676,8 @@
         <v>0</v>
       </c>
       <c r="P5" s="60"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="92"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -12854,8 +14722,8 @@
         <v>0</v>
       </c>
       <c r="P6" s="60"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -12900,8 +14768,8 @@
         <v>0</v>
       </c>
       <c r="P7" s="60"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="84"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -12946,8 +14814,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="60"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -12992,8 +14860,8 @@
         <v>0</v>
       </c>
       <c r="P9" s="60"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -13026,8 +14894,8 @@
         <v>0</v>
       </c>
       <c r="P10" s="60"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -13060,8 +14928,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="63"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
     </row>
     <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -13094,8 +14962,8 @@
         <v>0</v>
       </c>
       <c r="P12" s="63"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
     </row>
     <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -13128,8 +14996,8 @@
         <v>0</v>
       </c>
       <c r="P13" s="63"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="86"/>
     </row>
     <row r="14" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -13162,8 +15030,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="63"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="86"/>
     </row>
     <row r="15" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -13196,8 +15064,8 @@
         <v>0</v>
       </c>
       <c r="P15" s="63"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
     </row>
     <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -13230,8 +15098,8 @@
         <v>0</v>
       </c>
       <c r="P16" s="63"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86"/>
     </row>
     <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -13264,8 +15132,8 @@
         <v>0</v>
       </c>
       <c r="P17" s="63"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
     </row>
     <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -13298,8 +15166,8 @@
         <v>0</v>
       </c>
       <c r="P18" s="63"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="86"/>
     </row>
     <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -13332,8 +15200,8 @@
         <v>0</v>
       </c>
       <c r="P19" s="63"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="86"/>
     </row>
     <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -13366,8 +15234,8 @@
         <v>0</v>
       </c>
       <c r="P20" s="63"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
     </row>
     <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -13400,8 +15268,8 @@
         <v>0</v>
       </c>
       <c r="P21" s="63"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="86"/>
     </row>
     <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -13434,8 +15302,8 @@
         <v>0</v>
       </c>
       <c r="P22" s="63"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
     </row>
     <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -13468,8 +15336,8 @@
         <v>0</v>
       </c>
       <c r="P23" s="63"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
     </row>
     <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -13502,8 +15370,8 @@
         <v>0</v>
       </c>
       <c r="P24" s="63"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
     </row>
     <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -13536,8 +15404,8 @@
         <v>0</v>
       </c>
       <c r="P25" s="63"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="86"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -13570,8 +15438,8 @@
         <v>0</v>
       </c>
       <c r="P26" s="60"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -13604,8 +15472,8 @@
         <v>0</v>
       </c>
       <c r="P27" s="60"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -13638,8 +15506,8 @@
         <v>0</v>
       </c>
       <c r="P28" s="60"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -13672,8 +15540,8 @@
         <v>0</v>
       </c>
       <c r="P29" s="60"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -13706,8 +15574,8 @@
         <v>0</v>
       </c>
       <c r="P30" s="60"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -13740,8 +15608,8 @@
         <v>0</v>
       </c>
       <c r="P31" s="60"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -13774,8 +15642,8 @@
         <v>0</v>
       </c>
       <c r="P32" s="60"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -13808,8 +15676,8 @@
         <v>0</v>
       </c>
       <c r="P33" s="60"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -13842,8 +15710,8 @@
         <v>0</v>
       </c>
       <c r="P34" s="60"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -13876,8 +15744,8 @@
         <v>0</v>
       </c>
       <c r="P35" s="60"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -13910,8 +15778,8 @@
         <v>0</v>
       </c>
       <c r="P36" s="60"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="84"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="92"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -13944,8 +15812,8 @@
         <v>0</v>
       </c>
       <c r="P37" s="60"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="84"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="92"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -13978,8 +15846,8 @@
         <v>0</v>
       </c>
       <c r="P38" s="60"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="84"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="92"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -14012,8 +15880,8 @@
         <v>0</v>
       </c>
       <c r="P39" s="60"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="84"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="92"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -14046,8 +15914,8 @@
         <v>0</v>
       </c>
       <c r="P40" s="60"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="84"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="92"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -14080,8 +15948,8 @@
         <v>0</v>
       </c>
       <c r="P41" s="60"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="84"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="92"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
@@ -14114,8 +15982,8 @@
         <v>0</v>
       </c>
       <c r="P42" s="60"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="84"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="92"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -14148,8 +16016,8 @@
         <v>0</v>
       </c>
       <c r="P43" s="60"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="84"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="92"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -14182,8 +16050,8 @@
         <v>0</v>
       </c>
       <c r="P44" s="60"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="84"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="92"/>
     </row>
     <row r="45" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -14222,8 +16090,8 @@
       <c r="P45" s="60">
         <v>0</v>
       </c>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="84"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="92"/>
     </row>
     <row r="46" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
@@ -14259,18 +16127,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="86"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="102"/>
     </row>
     <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
       <c r="G47" s="30">
         <f>SUBTOTAL(9,G5:G46)</f>
         <v>34400</v>
@@ -14320,10 +16188,10 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="N48" s="89" t="s">
+      <c r="N48" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="O48" s="90"/>
+      <c r="O48" s="96"/>
       <c r="P48" s="37">
         <f>+J47</f>
         <v>2440</v>
@@ -14343,10 +16211,10 @@
       <c r="K49" s="1"/>
       <c r="L49" s="36"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="79" t="s">
+      <c r="N49" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="80"/>
+      <c r="O49" s="98"/>
       <c r="P49" s="38">
         <f>+O47</f>
         <v>0</v>
@@ -14366,30 +16234,30 @@
       <c r="K50" s="1"/>
       <c r="L50" s="36"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="79" t="s">
+      <c r="N50" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="80"/>
+      <c r="O50" s="98"/>
       <c r="P50" s="41">
         <f>+P48+P49</f>
         <v>2440</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N51" s="79" t="s">
+      <c r="N51" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="O51" s="80"/>
+      <c r="O51" s="98"/>
       <c r="P51" s="38">
         <f>+P47</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="81" t="s">
+      <c r="N52" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="O52" s="82"/>
+      <c r="O52" s="100"/>
       <c r="P52" s="42">
         <f>+P50+P51</f>
         <v>2440</v>
@@ -14398,6 +16266,50 @@
   </sheetData>
   <autoFilter ref="A4:K52"/>
   <mergeCells count="52">
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="N50:O50"/>
     <mergeCell ref="N51:O51"/>
@@ -14406,1902 +16318,6 @@
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="Q45:R45"/>
     <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K46">
-      <formula1>"นัดรับ,Facebook,Shopee,Line"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:R52"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="36" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-    </row>
-    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-    </row>
-    <row r="3" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-    </row>
-    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="96"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="16">
-        <v>160</v>
-      </c>
-      <c r="F5" s="17">
-        <v>10</v>
-      </c>
-      <c r="G5" s="16">
-        <f t="shared" ref="G5:G46" si="0">SUM(E5*F5)</f>
-        <v>1600</v>
-      </c>
-      <c r="H5" s="16">
-        <v>199</v>
-      </c>
-      <c r="I5" s="22">
-        <f t="shared" ref="I5:I14" si="1">+F5*H5</f>
-        <v>1990</v>
-      </c>
-      <c r="J5" s="16">
-        <f t="shared" ref="J5:J46" si="2">+I5-G5</f>
-        <v>390</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="62">
-        <f t="shared" ref="O5:O10" si="3">+M5-N5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="16">
-        <v>160</v>
-      </c>
-      <c r="F6" s="17">
-        <v>120</v>
-      </c>
-      <c r="G6" s="16">
-        <f t="shared" si="0"/>
-        <v>19200</v>
-      </c>
-      <c r="H6" s="16">
-        <v>170</v>
-      </c>
-      <c r="I6" s="22">
-        <f t="shared" si="1"/>
-        <v>20400</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="16">
-        <v>160</v>
-      </c>
-      <c r="F7" s="17">
-        <v>30</v>
-      </c>
-      <c r="G7" s="16">
-        <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-      <c r="H7" s="16">
-        <v>170</v>
-      </c>
-      <c r="I7" s="22">
-        <f t="shared" si="1"/>
-        <v>5100</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="84"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="16">
-        <v>160</v>
-      </c>
-      <c r="F8" s="17">
-        <v>50</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="H8" s="16">
-        <v>170</v>
-      </c>
-      <c r="I8" s="22">
-        <f t="shared" si="1"/>
-        <v>8500</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="16">
-        <v>160</v>
-      </c>
-      <c r="F9" s="17">
-        <v>5</v>
-      </c>
-      <c r="G9" s="16">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="H9" s="16">
-        <v>170</v>
-      </c>
-      <c r="I9" s="22">
-        <f t="shared" si="1"/>
-        <v>850</v>
-      </c>
-      <c r="J9" s="16">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16">
-        <f>SUM(E10*F10)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-    </row>
-    <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>7</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22">
-        <f t="shared" ref="G11:G33" si="4">SUM(E11*F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="62">
-        <f>+M11-N11</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
-    </row>
-    <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>8</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="62">
-        <f t="shared" ref="O12:P46" si="5">+M12-N12</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
-    </row>
-    <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
-    </row>
-    <row r="14" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>10</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
-    </row>
-    <row r="15" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>11</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22">
-        <f>+F15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
-    </row>
-    <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>12</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22">
-        <f>+F16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
-    </row>
-    <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>13</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22">
-        <f t="shared" ref="I17:I46" si="6">+F17*H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
-    </row>
-    <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>14</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
-    </row>
-    <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>15</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
-    </row>
-    <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>16</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
-    </row>
-    <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>17</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
-    </row>
-    <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>18</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
-    </row>
-    <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>19</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
-    </row>
-    <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>20</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
-    </row>
-    <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>21</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>22</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>23</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>24</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>25</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>26</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>27</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>28</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>29</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>30</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>31</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>32</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="84"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>33</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="18"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="84"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>34</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="84"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>35</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="84"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>36</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="84"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>37</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="84"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>38</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="84"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>39</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="18"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="84"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>40</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="84"/>
-    </row>
-    <row r="45" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>41</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="58">
-        <v>0</v>
-      </c>
-      <c r="N45" s="48">
-        <v>0</v>
-      </c>
-      <c r="O45" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="84"/>
-    </row>
-    <row r="46" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
-        <v>42</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="86"/>
-    </row>
-    <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="30">
-        <f>SUBTOTAL(9,G5:G46)</f>
-        <v>34400</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="30">
-        <f>SUBTOTAL(9,I5:I46)</f>
-        <v>36840</v>
-      </c>
-      <c r="J47" s="30">
-        <f>SUBTOTAL(9,J5:J46)</f>
-        <v>2440</v>
-      </c>
-      <c r="K47" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L47" s="30">
-        <f>SUBTOTAL(9,L5:L46)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="30">
-        <f>SUBTOTAL(9,M5:M46)</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="30">
-        <f>SUBTOTAL(9,N5:N46)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="33">
-        <f>SUBTOTAL(9,O5:O46)</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="33">
-        <f>SUBTOTAL(9,P5:P46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="N48" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="O48" s="90"/>
-      <c r="P48" s="37">
-        <f>+J47</f>
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="O49" s="80"/>
-      <c r="P49" s="38">
-        <f>+O47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="O50" s="80"/>
-      <c r="P50" s="41">
-        <f>+P48+P49</f>
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N51" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="O51" s="80"/>
-      <c r="P51" s="38">
-        <f>+P47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="O52" s="82"/>
-      <c r="P52" s="42">
-        <f>+P50+P51</f>
-        <v>2440</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A4:K52"/>
-  <mergeCells count="52">
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K46">

--- a/บัญชี+สต๊อกสินค้า 04-65.xlsx
+++ b/บัญชี+สต๊อกสินค้า 04-65.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="วัตถุดิบ" sheetId="3" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="โบนัสไตรมาสแรก" sheetId="8" r:id="rId6"/>
     <sheet name="04-65" sheetId="7" r:id="rId7"/>
     <sheet name="05-65" sheetId="10" r:id="rId8"/>
-    <sheet name="06-65" sheetId="11" r:id="rId9"/>
-    <sheet name="โบนัสไตรมาส2" sheetId="12" r:id="rId10"/>
+    <sheet name="Stock" sheetId="13" r:id="rId9"/>
+    <sheet name="06-65" sheetId="11" r:id="rId10"/>
+    <sheet name="โบนัสไตรมาส2" sheetId="12" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'01-65'!$A$4:$K$52</definedName>
@@ -32,9 +33,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03-65'!$A$4:$K$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'04-65'!$A$4:$K$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'05-65'!$A$4:$K$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'06-65'!$A$4:$K$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'06-65'!$A$4:$K$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'12-64'!$A$4:$K$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">วัตถุดิบ!$A$5:$O$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">วัตถุดิบ!$A$5:$P$18</definedName>
     <definedName name="badpoint">[1]Bonus2563!$B$7</definedName>
     <definedName name="bonus_month">[1]Bonus2563!$B$3</definedName>
     <definedName name="jun_bonus">[1]Bonus2563!$B$8</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="88">
   <si>
     <t>รายงาน ซื้อ ขาย สินค้า</t>
   </si>
@@ -255,9 +256,6 @@
     <t>นิ้ง</t>
   </si>
   <si>
-    <t>แนน</t>
-  </si>
-  <si>
     <t>นัดรับ</t>
   </si>
   <si>
@@ -279,9 +277,6 @@
     <t>ภา(แม่ทีม)</t>
   </si>
   <si>
-    <t>ไฟเบอร์+โกโก้</t>
-  </si>
-  <si>
     <t>สระแก้ว(แม่ทีม)</t>
   </si>
   <si>
@@ -295,6 +290,33 @@
   </si>
   <si>
     <t>หักลบ</t>
+  </si>
+  <si>
+    <t>รวมยอดสต๊ก</t>
+  </si>
+  <si>
+    <t>แนน TKT</t>
+  </si>
+  <si>
+    <t>เลขบัญชีไทยพาณิชย์</t>
+  </si>
+  <si>
+    <t>จำนวนตั้งต้น</t>
+  </si>
+  <si>
+    <t>จำนวนซื้อเพิ่ม</t>
+  </si>
+  <si>
+    <t>จำนวนขายออก</t>
+  </si>
+  <si>
+    <t>คงเหลือ</t>
+  </si>
+  <si>
+    <t>ต้องสั่งซื้อเพิ่ม</t>
+  </si>
+  <si>
+    <t>จุดสั่งของเพิ่ม</t>
   </si>
 </sst>
 </file>
@@ -834,7 +856,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1144,14 +1166,82 @@
     <xf numFmtId="166" fontId="2" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1472,11 +1562,11 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AE217"/>
+  <dimension ref="A1:AI217"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA26" sqref="AA26"/>
+      <selection pane="bottomLeft" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,28 +1584,32 @@
     <col min="11" max="11" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" style="43" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="43"/>
+    <col min="28" max="28" width="12" style="43" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" style="43" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
         <v>56</v>
       </c>
@@ -1533,8 +1627,9 @@
       <c r="M1" s="78"/>
       <c r="N1" s="78"/>
       <c r="O1" s="78"/>
-    </row>
-    <row r="2" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="78"/>
+    </row>
+    <row r="2" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>32</v>
       </c>
@@ -1552,8 +1647,9 @@
       <c r="M2" s="78"/>
       <c r="N2" s="78"/>
       <c r="O2" s="78"/>
-    </row>
-    <row r="3" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="78"/>
+    </row>
+    <row r="3" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>46</v>
       </c>
@@ -1571,8 +1667,9 @@
       <c r="M3" s="79"/>
       <c r="N3" s="79"/>
       <c r="O3" s="79"/>
-    </row>
-    <row r="4" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="79"/>
+    </row>
+    <row r="4" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>33</v>
       </c>
@@ -1612,29 +1709,29 @@
       <c r="M4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="P4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="Q4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="R4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="S4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="T4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="81" t="s">
-        <v>38</v>
+      <c r="U4" s="111" t="s">
+        <v>79</v>
       </c>
       <c r="V4" s="44" t="s">
         <v>37</v>
@@ -1654,20 +1751,32 @@
       <c r="AA4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="44" t="s">
+      <c r="AB4" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="81" t="s">
+      <c r="AD4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="44" t="s">
+      <c r="AE4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="81" t="s">
+      <c r="AF4" s="81" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" s="111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
@@ -1691,44 +1800,48 @@
         <v>242978</v>
       </c>
       <c r="M5" s="82"/>
-      <c r="N5" s="45">
+      <c r="N5" s="112"/>
+      <c r="O5" s="45">
         <v>243008</v>
       </c>
-      <c r="O5" s="82"/>
-      <c r="P5" s="45">
+      <c r="P5" s="82"/>
+      <c r="Q5" s="45">
         <v>243039</v>
       </c>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="45">
+      <c r="R5" s="82"/>
+      <c r="S5" s="45">
         <v>243069</v>
       </c>
-      <c r="S5" s="82"/>
-      <c r="T5" s="45">
+      <c r="T5" s="82"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="45">
         <v>243100</v>
-      </c>
-      <c r="U5" s="82"/>
-      <c r="V5" s="45">
-        <v>243131</v>
       </c>
       <c r="W5" s="82"/>
       <c r="X5" s="45">
-        <v>243161</v>
+        <v>243131</v>
       </c>
       <c r="Y5" s="82"/>
       <c r="Z5" s="45">
+        <v>243161</v>
+      </c>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="45">
         <v>243192</v>
       </c>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="45">
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="45">
         <v>243222</v>
       </c>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="45">
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="45">
         <v>243253</v>
       </c>
-      <c r="AE5" s="82"/>
-    </row>
-    <row r="6" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="112"/>
+    </row>
+    <row r="6" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>41</v>
       </c>
@@ -1751,10 +1864,12 @@
         <f>+E6*F6</f>
         <v>6800</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="17">
+        <v>40</v>
+      </c>
       <c r="I6" s="47">
         <f>+E6*H6</f>
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="47">
@@ -1766,53 +1881,60 @@
         <f>+L6*E6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="47">
-        <f>+N6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="47">
-        <f>+P6*I6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="47">
-        <f>+R6*K6</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="47">
-        <f>+T6*M6</f>
-        <v>0</v>
-      </c>
+      <c r="N6" s="109">
+        <f>H18+J18+L18</f>
+        <v>700</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="47">
+        <f>+O6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="47">
+        <f t="shared" ref="R6:R16" si="0">+Q6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="113"/>
+      <c r="T6" s="47">
+        <f>+S6*K6</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="109"/>
       <c r="V6" s="17"/>
       <c r="W6" s="47">
-        <f>+V6*O6</f>
+        <f>+V6*M6</f>
         <v>0</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="47">
-        <f>+X6*Q6</f>
+        <f>+X6*P6</f>
         <v>0</v>
       </c>
       <c r="Z6" s="17"/>
       <c r="AA6" s="47">
-        <f>+Z6*S6</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="47">
-        <f>+AB6*U6</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="47">
-        <f>+AD6*W6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f>+Z6*R6</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="47">
+        <f>+AC6*T6</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="47">
+        <f>+AE6*W6</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="47">
+        <f>+AG6*Y6</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="109"/>
+    </row>
+    <row r="7" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>43</v>
       </c>
@@ -1832,13 +1954,15 @@
         <v>10</v>
       </c>
       <c r="G7" s="52">
-        <f t="shared" ref="G7:G8" si="0">+E7*F7</f>
+        <f t="shared" ref="G7:G8" si="1">+E7*F7</f>
         <v>1700</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="17">
+        <v>10</v>
+      </c>
       <c r="I7" s="47">
-        <f t="shared" ref="I7:I17" si="1">+E7*H7</f>
-        <v>0</v>
+        <f t="shared" ref="I7:I17" si="2">+E7*H7</f>
+        <v>1700</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="47">
@@ -1850,53 +1974,57 @@
         <f>+L7*E7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="47">
-        <f>+N7*E7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="47">
-        <f>+P7*I7</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="47">
-        <f>+R7*K7</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="47">
-        <f>+T7*M7</f>
-        <v>0</v>
-      </c>
+      <c r="N7" s="110"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="47">
+        <f>+O7*E7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="113"/>
+      <c r="T7" s="47">
+        <f>+S7*K7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="110"/>
       <c r="V7" s="17"/>
       <c r="W7" s="47">
-        <f>+V7*O7</f>
+        <f>+V7*M7</f>
         <v>0</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="47">
-        <f>+X7*Q7</f>
+        <f>+X7*P7</f>
         <v>0</v>
       </c>
       <c r="Z7" s="17"/>
       <c r="AA7" s="47">
-        <f>+Z7*S7</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="47">
-        <f>+AB7*U7</f>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="47">
-        <f>+AD7*W7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f>+Z7*R7</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="47">
+        <f>+AC7*T7</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="47">
+        <f>+AE7*W7</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="47">
+        <f>+AG7*Y7</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="110"/>
+    </row>
+    <row r="8" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>44</v>
       </c>
@@ -1916,13 +2044,15 @@
         <v>50</v>
       </c>
       <c r="G8" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8500</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="17">
+        <v>50</v>
+      </c>
       <c r="I8" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8500</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="47">
@@ -1934,53 +2064,57 @@
         <f>+L8*E8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="47">
-        <f>+N8*E8</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="47">
-        <f>+P8*I8</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="47">
-        <f>+R8*K8</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="47">
-        <f>+T8*M8</f>
-        <v>0</v>
-      </c>
+      <c r="N8" s="110"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="47">
+        <f>+O8*E8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="113"/>
+      <c r="T8" s="47">
+        <f>+S8*K8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="110"/>
       <c r="V8" s="17"/>
       <c r="W8" s="47">
-        <f>+V8*O8</f>
+        <f>+V8*M8</f>
         <v>0</v>
       </c>
       <c r="X8" s="17"/>
       <c r="Y8" s="47">
-        <f>+X8*Q8</f>
+        <f>+X8*P8</f>
         <v>0</v>
       </c>
       <c r="Z8" s="17"/>
       <c r="AA8" s="47">
-        <f>+Z8*S8</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="47">
-        <f>+AB8*U8</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="47">
-        <f>+AD8*W8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f>+Z8*R8</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="47">
+        <f>+AC8*T8</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="47">
+        <f>+AE8*W8</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="47">
+        <f>+AG8*Y8</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="110"/>
+    </row>
+    <row r="9" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>41</v>
       </c>
@@ -1998,76 +2132,80 @@
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="17">
-        <v>250</v>
-      </c>
+      <c r="H9" s="17"/>
       <c r="I9" s="47">
-        <f t="shared" si="1"/>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J9" s="17">
         <v>200</v>
       </c>
       <c r="K9" s="47">
-        <f t="shared" ref="K9:K17" si="2">+E9*J9</f>
+        <f>+E9*J9</f>
         <v>32000</v>
       </c>
       <c r="L9" s="17">
         <v>200</v>
       </c>
       <c r="M9" s="47">
-        <f t="shared" ref="M9:M17" si="3">+L9*E9</f>
+        <f>+L9*E9</f>
         <v>32000</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="110"/>
+      <c r="O9" s="17">
         <v>300</v>
       </c>
-      <c r="O9" s="47">
-        <f t="shared" ref="O9:O17" si="4">+N9*E9</f>
+      <c r="P9" s="47">
+        <f>+O9*E9</f>
         <v>48000</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="47">
-        <f t="shared" ref="Q9:Q17" si="5">+P9*I9</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="47">
-        <f t="shared" ref="S9:S17" si="6">+R9*K9</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="47">
-        <f t="shared" ref="U9:U17" si="7">+T9*M9</f>
-        <v>0</v>
-      </c>
+      <c r="Q9" s="113">
+        <v>100</v>
+      </c>
+      <c r="R9" s="47">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="S9" s="113"/>
+      <c r="T9" s="47">
+        <f>+S9*K9</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="110"/>
       <c r="V9" s="17"/>
       <c r="W9" s="47">
-        <f t="shared" ref="W9:W17" si="8">+V9*O9</f>
+        <f t="shared" ref="W9:W17" si="3">+V9*M9</f>
         <v>0</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="47">
-        <f t="shared" ref="Y9:Y17" si="9">+X9*Q9</f>
+        <f t="shared" ref="Y9:Y17" si="4">+X9*P9</f>
         <v>0</v>
       </c>
       <c r="Z9" s="17"/>
       <c r="AA9" s="47">
-        <f t="shared" ref="AA9:AA17" si="10">+Z9*S9</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="47">
-        <f t="shared" ref="AC9:AC17" si="11">+AB9*U9</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="47">
-        <f t="shared" ref="AE9:AE17" si="12">+AD9*W9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AA9:AA17" si="5">+Z9*R9</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="47">
+        <f t="shared" ref="AD9:AD17" si="6">+AC9*T9</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="47">
+        <f t="shared" ref="AF9:AF17" si="7">+AE9*W9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="47">
+        <f t="shared" ref="AH9:AH17" si="8">+AG9*Y9</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="110"/>
+    </row>
+    <row r="10" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>43</v>
       </c>
@@ -2087,70 +2225,76 @@
       <c r="G10" s="52"/>
       <c r="H10" s="17"/>
       <c r="I10" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="17">
         <v>50</v>
       </c>
       <c r="K10" s="47">
-        <f t="shared" si="2"/>
+        <f>+E10*J10</f>
         <v>8000</v>
       </c>
       <c r="L10" s="17">
         <v>50</v>
       </c>
       <c r="M10" s="47">
-        <f t="shared" si="3"/>
+        <f>+L10*E10</f>
         <v>8000</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="N10" s="110"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="47">
+        <f>+O10*E10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="113">
+        <v>100</v>
+      </c>
+      <c r="R10" s="47">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="S10" s="113"/>
+      <c r="T10" s="47">
+        <f>+S10*K10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="110"/>
       <c r="V10" s="17"/>
       <c r="W10" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z10" s="17"/>
       <c r="AA10" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="110"/>
+    </row>
+    <row r="11" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>44</v>
       </c>
@@ -2168,74 +2312,78 @@
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="17">
-        <v>50</v>
-      </c>
+      <c r="H11" s="17"/>
       <c r="I11" s="47">
-        <f t="shared" si="1"/>
-        <v>8000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J11" s="17">
         <v>50</v>
       </c>
       <c r="K11" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K9:K17" si="9">+E11*J11</f>
         <v>8000</v>
       </c>
       <c r="L11" s="17">
         <v>50</v>
       </c>
       <c r="M11" s="47">
-        <f t="shared" si="3"/>
+        <f>+L11*E11</f>
         <v>8000</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="N11" s="110"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="47">
+        <f>+O11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="113">
+        <v>100</v>
+      </c>
+      <c r="R11" s="47">
+        <f>+Q11*E11</f>
+        <v>16000</v>
+      </c>
+      <c r="S11" s="113"/>
+      <c r="T11" s="47">
+        <f>+S11*K11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="110"/>
       <c r="V11" s="17"/>
       <c r="W11" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z11" s="17"/>
       <c r="AA11" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="110"/>
+    </row>
+    <row r="12" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="46"/>
       <c r="C12" s="13"/>
@@ -2245,66 +2393,70 @@
       <c r="G12" s="52"/>
       <c r="H12" s="17"/>
       <c r="I12" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="17"/>
-      <c r="U12" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f>+L12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="110"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="47">
+        <f>+O12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="113"/>
+      <c r="T12" s="47">
+        <f>+S12*K12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="110"/>
       <c r="V12" s="17"/>
       <c r="W12" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z12" s="17"/>
       <c r="AA12" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="110"/>
+    </row>
+    <row r="13" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="46"/>
       <c r="C13" s="13"/>
@@ -2314,66 +2466,70 @@
       <c r="G13" s="52"/>
       <c r="H13" s="17"/>
       <c r="I13" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f>+L13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="110"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="47">
+        <f>+O13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="113"/>
+      <c r="T13" s="47">
+        <f>+S13*K13</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="110"/>
       <c r="V13" s="17"/>
       <c r="W13" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z13" s="17"/>
       <c r="AA13" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="110"/>
+    </row>
+    <row r="14" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="46"/>
       <c r="C14" s="13"/>
@@ -2383,66 +2539,70 @@
       <c r="G14" s="52"/>
       <c r="H14" s="17"/>
       <c r="I14" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f>+L14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="110"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="47">
+        <f>+O14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="113"/>
+      <c r="T14" s="47">
+        <f>+S14*K14</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="110"/>
       <c r="V14" s="17"/>
       <c r="W14" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z14" s="17"/>
       <c r="AA14" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="110"/>
+    </row>
+    <row r="15" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="46"/>
       <c r="C15" s="13"/>
@@ -2452,66 +2612,70 @@
       <c r="G15" s="52"/>
       <c r="H15" s="17"/>
       <c r="I15" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f>+L15*E15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="110"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="47">
+        <f>+O15*E15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="113"/>
+      <c r="T15" s="47">
+        <f>+S15*K15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="110"/>
       <c r="V15" s="17"/>
       <c r="W15" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z15" s="17"/>
       <c r="AA15" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="110"/>
+    </row>
+    <row r="16" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="46"/>
       <c r="C16" s="13"/>
@@ -2521,66 +2685,70 @@
       <c r="G16" s="52"/>
       <c r="H16" s="17"/>
       <c r="I16" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="17"/>
-      <c r="U16" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f>+L16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="110"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="47">
+        <f>+O16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="113"/>
+      <c r="T16" s="47">
+        <f>+S16*K16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="110"/>
       <c r="V16" s="17"/>
       <c r="W16" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z16" s="17"/>
       <c r="AA16" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="110"/>
+    </row>
+    <row r="17" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="46"/>
       <c r="C17" s="13"/>
@@ -2590,98 +2758,121 @@
       <c r="G17" s="52"/>
       <c r="H17" s="17"/>
       <c r="I17" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f>+L17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="108"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="47">
+        <f>+O17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="47">
+        <f>+Q17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="113"/>
+      <c r="T17" s="47">
+        <f>+S17*K17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="108"/>
       <c r="V17" s="17"/>
       <c r="W17" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X17" s="17"/>
       <c r="Y17" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z17" s="17"/>
       <c r="AA17" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="108"/>
+    </row>
+    <row r="18" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G18" s="53">
         <f>SUM(G6:G17)</f>
         <v>17000</v>
       </c>
+      <c r="H18" s="43">
+        <f>SUM(H6:H17)</f>
+        <v>100</v>
+      </c>
       <c r="I18" s="49">
         <f>SUM(I6:I17)</f>
-        <v>48000</v>
+        <v>17000</v>
+      </c>
+      <c r="J18" s="43">
+        <f>SUM(J6:J17)</f>
+        <v>300</v>
       </c>
       <c r="K18" s="49">
         <f>SUM(K6:K17)</f>
         <v>48000</v>
       </c>
+      <c r="L18" s="43">
+        <f>SUM(L6:L17)</f>
+        <v>300</v>
+      </c>
       <c r="M18" s="49">
         <f>SUM(M6:M17)</f>
         <v>48000</v>
       </c>
-      <c r="O18" s="49">
+      <c r="N18" s="107"/>
+      <c r="O18" s="43">
         <f>SUM(O6:O17)</f>
+        <v>300</v>
+      </c>
+      <c r="P18" s="49">
+        <f>SUM(P6:P17)</f>
         <v>48000</v>
       </c>
-      <c r="Q18" s="49">
+      <c r="Q18" s="114">
         <f>SUM(Q6:Q17)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="49">
-        <f>SUM(S6:S17)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="49">
-        <f>SUM(U6:U17)</f>
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="R18" s="49">
+        <f>SUM(R6:R17)</f>
+        <v>48000</v>
+      </c>
+      <c r="S18" s="114"/>
+      <c r="T18" s="49">
+        <f>SUM(T6:T17)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="107"/>
       <c r="W18" s="49">
         <f>SUM(W6:W17)</f>
         <v>0</v>
@@ -2694,16 +2885,22 @@
         <f>SUM(AA6:AA17)</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="49">
-        <f>SUM(AC6:AC17)</f>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="49">
-        <f>SUM(AE6:AE17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AB18" s="107"/>
+      <c r="AD18" s="49">
+        <f>SUM(AD6:AD17)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="49">
+        <f>SUM(AF6:AF17)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="49">
+        <f>SUM(AH6:AH17)</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="107"/>
+    </row>
+    <row r="19" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="50"/>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
@@ -2719,25 +2916,29 @@
       <c r="M19" s="50"/>
       <c r="N19" s="50"/>
       <c r="O19" s="50"/>
-    </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="P19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AI19" s="50"/>
+    </row>
+    <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="50"/>
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
     </row>
-    <row r="21" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2924,20 +3125,28 @@
     <row r="216" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="217" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AE4:AE5"/>
+  <mergeCells count="28">
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AI6:AI17"/>
+    <mergeCell ref="N6:N17"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="U6:U17"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AB6:AB17"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T5"/>
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -2956,10 +3165,1802 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="36" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+    </row>
+    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+    </row>
+    <row r="3" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+    </row>
+    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="90"/>
+    </row>
+    <row r="5" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5:G10" si="0">SUM(E5*F5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22">
+        <f t="shared" ref="I4:I14" si="1">+F5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" ref="J5:J46" si="2">+I5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="62">
+        <f t="shared" ref="O5:O10" si="3">+M5-N5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="86"/>
+    </row>
+    <row r="6" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="86"/>
+    </row>
+    <row r="7" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="86"/>
+    </row>
+    <row r="8" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="86"/>
+    </row>
+    <row r="9" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>5</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="86"/>
+    </row>
+    <row r="10" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>6</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="86"/>
+    </row>
+    <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>7</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22">
+        <f>SUM(E11*F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="62">
+        <f>+M11-N11</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
+    </row>
+    <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22">
+        <f t="shared" ref="G11:G33" si="4">SUM(E12*F12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="62">
+        <f t="shared" ref="O12:P46" si="5">+M12-N12</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
+    </row>
+    <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="86"/>
+    </row>
+    <row r="14" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="86"/>
+    </row>
+    <row r="15" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22">
+        <f>+F15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
+    </row>
+    <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22">
+        <f>+F16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86"/>
+    </row>
+    <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22">
+        <f t="shared" ref="I17:I46" si="6">+F17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
+    </row>
+    <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="86"/>
+    </row>
+    <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>15</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="86"/>
+    </row>
+    <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>16</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
+    </row>
+    <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="86"/>
+    </row>
+    <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
+    </row>
+    <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>19</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
+    </row>
+    <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>20</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
+    </row>
+    <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>21</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="86"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>23</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>24</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>26</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>27</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>28</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>29</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>30</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="16">
+        <f t="shared" ref="G5:G46" si="7">SUM(E34*F34)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>31</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>32</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="92"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>33</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="18"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="92"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>34</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="92"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>35</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="92"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>36</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="92"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>37</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="92"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>38</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="92"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>39</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="92"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>40</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="92"/>
+    </row>
+    <row r="45" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>41</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="58">
+        <v>0</v>
+      </c>
+      <c r="N45" s="48">
+        <v>0</v>
+      </c>
+      <c r="O45" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="92"/>
+    </row>
+    <row r="46" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>42</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="18"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="102"/>
+    </row>
+    <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="30">
+        <f>SUBTOTAL(9,G5:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="30">
+        <f>SUBTOTAL(9,I5:I46)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="30">
+        <f>SUBTOTAL(9,J5:J46)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" s="30">
+        <f>SUBTOTAL(9,L5:L46)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="30">
+        <f>SUBTOTAL(9,M5:M46)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="30">
+        <f>SUBTOTAL(9,N5:N46)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="33">
+        <f>SUBTOTAL(9,O5:O46)</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="33">
+        <f>SUBTOTAL(9,P5:P46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="N48" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="96"/>
+      <c r="P48" s="37">
+        <f>+J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" s="98"/>
+      <c r="P49" s="38">
+        <f>+O47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" s="98"/>
+      <c r="P50" s="41">
+        <f>+P48+P49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" s="98"/>
+      <c r="P51" s="38">
+        <f>+P47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N52" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" s="100"/>
+      <c r="P52" s="42">
+        <f>+P50+P51</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:K52"/>
+  <mergeCells count="52">
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K46">
+      <formula1>"นัดรับ,Facebook,Shopee,Line"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,7 +4984,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="65">
         <v>300</v>
@@ -2994,7 +4995,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="65">
         <v>300</v>
@@ -3005,7 +5006,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="65">
         <v>300</v>
@@ -3016,7 +5017,7 @@
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="65">
         <f>SUM(C3:C5)</f>
@@ -5010,7 +7011,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:R1"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -10647,11 +12648,11 @@
   </sheetPr>
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -10829,7 +12830,7 @@
         <v>390</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="58"/>
@@ -10851,31 +12852,31 @@
         <v>21</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E6" s="16">
         <v>160</v>
       </c>
       <c r="F6" s="17">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G6" s="16">
-        <f t="shared" si="0"/>
-        <v>19200</v>
+        <f>SUM(E6*F6)</f>
+        <v>4800</v>
       </c>
       <c r="H6" s="16">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" si="1"/>
-        <v>20400</v>
+        <f>+F6*H6</f>
+        <v>5700</v>
       </c>
       <c r="J6" s="16">
-        <f t="shared" si="2"/>
-        <v>1200</v>
+        <f>+I6-G6</f>
+        <v>900</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="19">
         <v>0</v>
@@ -10896,34 +12897,34 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="22">
+        <v>160</v>
+      </c>
+      <c r="F7" s="23">
+        <v>30</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" ref="G7:G15" si="4">SUM(E7*F7)</f>
+        <v>4800</v>
+      </c>
+      <c r="H7" s="22">
+        <v>185</v>
+      </c>
+      <c r="I7" s="22">
+        <f>+F7*H7</f>
+        <v>5550</v>
+      </c>
+      <c r="J7" s="22">
+        <f>+I7-G7</f>
+        <v>750</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="E7" s="16">
-        <v>160</v>
-      </c>
-      <c r="F7" s="17">
-        <v>30</v>
-      </c>
-      <c r="G7" s="16">
-        <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-      <c r="H7" s="16">
-        <v>170</v>
-      </c>
-      <c r="I7" s="22">
-        <f t="shared" si="1"/>
-        <v>5100</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="L7" s="19">
         <v>0</v>
@@ -10944,34 +12945,34 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="22">
+        <v>160</v>
+      </c>
+      <c r="F8" s="23">
+        <v>40</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="4"/>
+        <v>6400</v>
+      </c>
+      <c r="H8" s="22">
+        <v>180</v>
+      </c>
+      <c r="I8" s="22">
+        <f>+F8*H8</f>
+        <v>7200</v>
+      </c>
+      <c r="J8" s="22">
+        <f>+I8-G8</f>
+        <v>800</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="E8" s="16">
-        <v>160</v>
-      </c>
-      <c r="F8" s="17">
-        <v>50</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="H8" s="16">
-        <v>170</v>
-      </c>
-      <c r="I8" s="22">
-        <f t="shared" si="1"/>
-        <v>8500</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="L8" s="19">
         <v>0</v>
@@ -10995,31 +12996,31 @@
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="22">
+        <v>160</v>
+      </c>
+      <c r="F9" s="23">
+        <v>10</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="H9" s="22">
+        <v>180</v>
+      </c>
+      <c r="I9" s="22">
+        <f>+F9*H9</f>
+        <v>1800</v>
+      </c>
+      <c r="J9" s="22">
+        <f>+I9-G9</f>
+        <v>200</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="16">
-        <v>160</v>
-      </c>
-      <c r="F9" s="17">
-        <v>5</v>
-      </c>
-      <c r="G9" s="16">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="H9" s="16">
-        <v>170</v>
-      </c>
-      <c r="I9" s="22">
-        <f t="shared" si="1"/>
-        <v>850</v>
-      </c>
-      <c r="J9" s="16">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="L9" s="19">
         <v>0</v>
@@ -11039,35 +13040,35 @@
         <v>6</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="E10" s="22">
         <v>160</v>
       </c>
-      <c r="F10" s="17">
-        <v>30</v>
-      </c>
-      <c r="G10" s="16">
-        <f>SUM(E10*F10)</f>
-        <v>4800</v>
-      </c>
-      <c r="H10" s="16">
-        <v>190</v>
+      <c r="F10" s="23">
+        <v>8</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="4"/>
+        <v>1280</v>
+      </c>
+      <c r="H10" s="22">
+        <v>199</v>
       </c>
       <c r="I10" s="22">
-        <f t="shared" si="1"/>
-        <v>5700</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="2"/>
-        <v>900</v>
+        <f>+F10*H10</f>
+        <v>1592</v>
+      </c>
+      <c r="J10" s="22">
+        <f>+I10-G10</f>
+        <v>312</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="19">
         <v>5700</v>
@@ -11087,34 +13088,36 @@
         <v>7</v>
       </c>
       <c r="B11" s="54"/>
-      <c r="C11" s="15" t="s">
-        <v>21</v>
+      <c r="C11" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="22">
         <v>160</v>
       </c>
       <c r="F11" s="23">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G11" s="22">
-        <f t="shared" ref="G11:G15" si="4">SUM(E11*F11)</f>
-        <v>4800</v>
+        <f t="shared" si="4"/>
+        <v>320</v>
       </c>
       <c r="H11" s="22">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="I11" s="22">
-        <f t="shared" si="1"/>
-        <v>5550</v>
+        <f>+F11*H11</f>
+        <v>398</v>
       </c>
       <c r="J11" s="22">
-        <f t="shared" si="2"/>
-        <v>750</v>
-      </c>
-      <c r="K11" s="18"/>
+        <f>+I11-G11</f>
+        <v>78</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="L11" s="56"/>
       <c r="M11" s="61"/>
       <c r="N11" s="22"/>
@@ -11131,39 +13134,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="54"/>
-      <c r="C12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="22">
-        <v>160</v>
-      </c>
-      <c r="F12" s="23">
-        <v>40</v>
-      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="22">
         <f t="shared" si="4"/>
-        <v>6400</v>
-      </c>
-      <c r="H12" s="22">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" s="22"/>
       <c r="I12" s="22">
-        <f t="shared" si="1"/>
-        <v>7200</v>
+        <f t="shared" ref="I12:I15" si="5">+F12*H12</f>
+        <v>0</v>
       </c>
       <c r="J12" s="22">
-        <f t="shared" si="2"/>
-        <v>800</v>
+        <f t="shared" ref="J12:J15" si="6">+I12-G12</f>
+        <v>0</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="56"/>
       <c r="M12" s="61"/>
       <c r="N12" s="22"/>
       <c r="O12" s="62">
-        <f t="shared" ref="O12:P46" si="5">+M12-N12</f>
+        <f t="shared" ref="O12:P46" si="7">+M12-N12</f>
         <v>0</v>
       </c>
       <c r="P12" s="63"/>
@@ -11175,39 +13168,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="54"/>
-      <c r="C13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="22">
-        <v>160</v>
-      </c>
-      <c r="F13" s="23">
-        <v>10</v>
-      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="22">
         <f t="shared" si="4"/>
-        <v>1600</v>
-      </c>
-      <c r="H13" s="22">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" s="22"/>
       <c r="I13" s="22">
-        <f t="shared" si="1"/>
-        <v>1800</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J13" s="22">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="56"/>
       <c r="M13" s="61"/>
       <c r="N13" s="22"/>
       <c r="O13" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P13" s="63"/>
@@ -11219,39 +13202,29 @@
         <v>10</v>
       </c>
       <c r="B14" s="54"/>
-      <c r="C14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="22">
-        <v>160</v>
-      </c>
-      <c r="F14" s="23">
-        <v>8</v>
-      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
-        <v>1280</v>
-      </c>
-      <c r="H14" s="22">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" s="22"/>
       <c r="I14" s="22">
-        <f t="shared" si="1"/>
-        <v>1592</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J14" s="22">
-        <f t="shared" si="2"/>
-        <v>312</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="56"/>
       <c r="M14" s="61"/>
       <c r="N14" s="22"/>
       <c r="O14" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P14" s="63"/>
@@ -11263,39 +13236,29 @@
         <v>11</v>
       </c>
       <c r="B15" s="54"/>
-      <c r="C15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="22">
-        <v>160</v>
-      </c>
-      <c r="F15" s="23">
-        <v>2</v>
-      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
-        <v>320</v>
-      </c>
-      <c r="H15" s="22">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" s="22"/>
       <c r="I15" s="22">
-        <f>+F15*H15</f>
-        <v>398</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J15" s="22">
-        <f t="shared" si="2"/>
-        <v>78</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="56"/>
       <c r="M15" s="61"/>
       <c r="N15" s="22"/>
       <c r="O15" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P15" s="63"/>
@@ -11312,7 +13275,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
       <c r="G16" s="22">
-        <f t="shared" ref="G16" si="6">SUM(E16*F16)</f>
+        <f t="shared" ref="G16" si="8">SUM(E16*F16)</f>
         <v>0</v>
       </c>
       <c r="H16" s="22"/>
@@ -11329,7 +13292,7 @@
       <c r="M16" s="61"/>
       <c r="N16" s="22"/>
       <c r="O16" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P16" s="63"/>
@@ -11346,12 +13309,12 @@
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
       <c r="G17" s="22">
-        <f t="shared" ref="G17:G33" si="7">SUM(E17*F17)</f>
+        <f t="shared" ref="G17:G33" si="9">SUM(E17*F17)</f>
         <v>0</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22">
-        <f t="shared" ref="I17:I46" si="8">+F17*H17</f>
+        <f t="shared" ref="I17:I46" si="10">+F17*H17</f>
         <v>0</v>
       </c>
       <c r="J17" s="22">
@@ -11363,7 +13326,7 @@
       <c r="M17" s="61"/>
       <c r="N17" s="22"/>
       <c r="O17" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P17" s="63"/>
@@ -11380,12 +13343,12 @@
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J18" s="22">
@@ -11397,7 +13360,7 @@
       <c r="M18" s="61"/>
       <c r="N18" s="22"/>
       <c r="O18" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P18" s="63"/>
@@ -11414,12 +13377,12 @@
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
       <c r="G19" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J19" s="22">
@@ -11431,7 +13394,7 @@
       <c r="M19" s="61"/>
       <c r="N19" s="22"/>
       <c r="O19" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P19" s="63"/>
@@ -11448,12 +13411,12 @@
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
       <c r="G20" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J20" s="22">
@@ -11465,7 +13428,7 @@
       <c r="M20" s="61"/>
       <c r="N20" s="22"/>
       <c r="O20" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P20" s="63"/>
@@ -11482,12 +13445,12 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23"/>
       <c r="G21" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J21" s="22">
@@ -11499,7 +13462,7 @@
       <c r="M21" s="61"/>
       <c r="N21" s="22"/>
       <c r="O21" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P21" s="63"/>
@@ -11516,12 +13479,12 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
       <c r="G22" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J22" s="22">
@@ -11533,7 +13496,7 @@
       <c r="M22" s="61"/>
       <c r="N22" s="22"/>
       <c r="O22" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P22" s="63"/>
@@ -11550,12 +13513,12 @@
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
       <c r="G23" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J23" s="22">
@@ -11567,7 +13530,7 @@
       <c r="M23" s="61"/>
       <c r="N23" s="22"/>
       <c r="O23" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P23" s="63"/>
@@ -11584,12 +13547,12 @@
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
       <c r="G24" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J24" s="22">
@@ -11601,7 +13564,7 @@
       <c r="M24" s="61"/>
       <c r="N24" s="22"/>
       <c r="O24" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P24" s="63"/>
@@ -11618,12 +13581,12 @@
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
       <c r="G25" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J25" s="22">
@@ -11635,7 +13598,7 @@
       <c r="M25" s="61"/>
       <c r="N25" s="22"/>
       <c r="O25" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P25" s="63"/>
@@ -11652,12 +13615,12 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
       <c r="G26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J26" s="16">
@@ -11669,7 +13632,7 @@
       <c r="M26" s="58"/>
       <c r="N26" s="48"/>
       <c r="O26" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P26" s="60"/>
@@ -11686,12 +13649,12 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23"/>
       <c r="G27" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J27" s="16">
@@ -11703,7 +13666,7 @@
       <c r="M27" s="58"/>
       <c r="N27" s="48"/>
       <c r="O27" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P27" s="60"/>
@@ -11720,12 +13683,12 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
       <c r="G28" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J28" s="16">
@@ -11737,7 +13700,7 @@
       <c r="M28" s="58"/>
       <c r="N28" s="48"/>
       <c r="O28" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P28" s="60"/>
@@ -11754,12 +13717,12 @@
       <c r="E29" s="22"/>
       <c r="F29" s="23"/>
       <c r="G29" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J29" s="16">
@@ -11771,7 +13734,7 @@
       <c r="M29" s="58"/>
       <c r="N29" s="48"/>
       <c r="O29" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P29" s="60"/>
@@ -11788,12 +13751,12 @@
       <c r="E30" s="22"/>
       <c r="F30" s="23"/>
       <c r="G30" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J30" s="16">
@@ -11805,7 +13768,7 @@
       <c r="M30" s="58"/>
       <c r="N30" s="48"/>
       <c r="O30" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P30" s="60"/>
@@ -11822,12 +13785,12 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
       <c r="G31" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J31" s="16">
@@ -11839,7 +13802,7 @@
       <c r="M31" s="58"/>
       <c r="N31" s="48"/>
       <c r="O31" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P31" s="60"/>
@@ -11856,12 +13819,12 @@
       <c r="E32" s="22"/>
       <c r="F32" s="23"/>
       <c r="G32" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J32" s="16">
@@ -11873,7 +13836,7 @@
       <c r="M32" s="58"/>
       <c r="N32" s="48"/>
       <c r="O32" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P32" s="60"/>
@@ -11890,12 +13853,12 @@
       <c r="E33" s="22"/>
       <c r="F33" s="17"/>
       <c r="G33" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J33" s="16">
@@ -11907,7 +13870,7 @@
       <c r="M33" s="58"/>
       <c r="N33" s="48"/>
       <c r="O33" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P33" s="60"/>
@@ -11929,7 +13892,7 @@
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J34" s="16">
@@ -11941,7 +13904,7 @@
       <c r="M34" s="58"/>
       <c r="N34" s="48"/>
       <c r="O34" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P34" s="60"/>
@@ -11963,7 +13926,7 @@
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J35" s="16">
@@ -11975,7 +13938,7 @@
       <c r="M35" s="58"/>
       <c r="N35" s="48"/>
       <c r="O35" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P35" s="60"/>
@@ -11997,7 +13960,7 @@
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J36" s="16">
@@ -12009,7 +13972,7 @@
       <c r="M36" s="58"/>
       <c r="N36" s="48"/>
       <c r="O36" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P36" s="60"/>
@@ -12031,7 +13994,7 @@
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J37" s="16">
@@ -12043,7 +14006,7 @@
       <c r="M37" s="58"/>
       <c r="N37" s="48"/>
       <c r="O37" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P37" s="60"/>
@@ -12065,7 +14028,7 @@
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J38" s="16">
@@ -12077,7 +14040,7 @@
       <c r="M38" s="58"/>
       <c r="N38" s="48"/>
       <c r="O38" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P38" s="60"/>
@@ -12099,7 +14062,7 @@
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J39" s="16">
@@ -12111,7 +14074,7 @@
       <c r="M39" s="58"/>
       <c r="N39" s="48"/>
       <c r="O39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P39" s="60"/>
@@ -12133,7 +14096,7 @@
       </c>
       <c r="H40" s="16"/>
       <c r="I40" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J40" s="16">
@@ -12145,7 +14108,7 @@
       <c r="M40" s="58"/>
       <c r="N40" s="48"/>
       <c r="O40" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P40" s="60"/>
@@ -12167,7 +14130,7 @@
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J41" s="16">
@@ -12179,7 +14142,7 @@
       <c r="M41" s="58"/>
       <c r="N41" s="48"/>
       <c r="O41" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P41" s="60"/>
@@ -12201,7 +14164,7 @@
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J42" s="16">
@@ -12213,7 +14176,7 @@
       <c r="M42" s="58"/>
       <c r="N42" s="48"/>
       <c r="O42" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P42" s="60"/>
@@ -12235,7 +14198,7 @@
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J43" s="16">
@@ -12247,7 +14210,7 @@
       <c r="M43" s="58"/>
       <c r="N43" s="48"/>
       <c r="O43" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P43" s="60"/>
@@ -12269,7 +14232,7 @@
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J44" s="16">
@@ -12281,7 +14244,7 @@
       <c r="M44" s="58"/>
       <c r="N44" s="48"/>
       <c r="O44" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P44" s="60"/>
@@ -12303,7 +14266,7 @@
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J45" s="16">
@@ -12319,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P45" s="60">
@@ -12343,7 +14306,7 @@
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J46" s="25">
@@ -12355,11 +14318,11 @@
       <c r="M46" s="27"/>
       <c r="N46" s="27"/>
       <c r="O46" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P46" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q46" s="101"/>
@@ -12376,18 +14339,18 @@
       <c r="F47" s="94"/>
       <c r="G47" s="30">
         <f>SUBTOTAL(9,G5:G46)</f>
-        <v>53600</v>
+        <v>20800</v>
       </c>
       <c r="H47" s="31" t="s">
         <v>27</v>
       </c>
       <c r="I47" s="30">
         <f>SUBTOTAL(9,I5:I46)</f>
-        <v>59080</v>
+        <v>24230</v>
       </c>
       <c r="J47" s="30">
         <f>SUBTOTAL(9,J5:J46)</f>
-        <v>5480</v>
+        <v>3430</v>
       </c>
       <c r="K47" s="32" t="s">
         <v>27</v>
@@ -12429,7 +14392,7 @@
       <c r="O48" s="96"/>
       <c r="P48" s="37">
         <f>+J47</f>
-        <v>5480</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12475,7 +14438,7 @@
       <c r="O50" s="98"/>
       <c r="P50" s="41">
         <f>+P48+P49</f>
-        <v>5480</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12495,12 +14458,12 @@
       <c r="O52" s="100"/>
       <c r="P52" s="42">
         <f>+P50+P51</f>
-        <v>5480</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B53" s="76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C53" s="75">
         <v>48000</v>
@@ -12508,7 +14471,7 @@
     </row>
     <row r="54" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B54" s="76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="75">
         <v>16540</v>
@@ -12516,7 +14479,7 @@
     </row>
     <row r="55" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B55" s="76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C55" s="77">
         <f>C53-C54</f>
@@ -12528,8 +14491,12 @@
       <c r="C56" s="74"/>
     </row>
     <row r="57" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B57" s="74"/>
-      <c r="C57" s="74"/>
+      <c r="C57" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="74">
+        <v>4150098258</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="72"/>
@@ -12617,10 +14584,10 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -12774,37 +14741,37 @@
         <v>21</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E5" s="16">
         <v>160</v>
       </c>
       <c r="F5" s="17">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G5" s="16">
-        <f t="shared" ref="G5:G46" si="0">SUM(E5*F5)</f>
-        <v>1600</v>
+        <f>SUM(E5*F5)</f>
+        <v>19200</v>
       </c>
       <c r="H5" s="16">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="I5" s="22">
-        <f t="shared" ref="I5:I14" si="1">+F5*H5</f>
-        <v>1990</v>
+        <f>+F5*H5</f>
+        <v>20400</v>
       </c>
       <c r="J5" s="16">
-        <f t="shared" ref="J5:J46" si="2">+I5-G5</f>
-        <v>390</v>
+        <f>+I5-G5</f>
+        <v>1200</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="58"/>
       <c r="N5" s="48"/>
       <c r="O5" s="62">
-        <f t="shared" ref="O5:O10" si="3">+M5-N5</f>
+        <f t="shared" ref="O5:O10" si="0">+M5-N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="60"/>
@@ -12817,40 +14784,40 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E6" s="16">
         <v>160</v>
       </c>
       <c r="F6" s="17">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G6" s="16">
-        <f t="shared" si="0"/>
-        <v>19200</v>
+        <f>SUM(E6*F6)</f>
+        <v>4800</v>
       </c>
       <c r="H6" s="16">
         <v>170</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" si="1"/>
-        <v>20400</v>
+        <f>+F6*H6</f>
+        <v>5100</v>
       </c>
       <c r="J6" s="16">
-        <f t="shared" si="2"/>
-        <v>1200</v>
+        <f>+I6-G6</f>
+        <v>300</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="58"/>
       <c r="N6" s="48"/>
       <c r="O6" s="62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6" s="60"/>
@@ -12863,40 +14830,40 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E7" s="16">
         <v>160</v>
       </c>
       <c r="F7" s="17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" si="0"/>
-        <v>4800</v>
+        <f>SUM(E7*F7)</f>
+        <v>8000</v>
       </c>
       <c r="H7" s="16">
         <v>170</v>
       </c>
       <c r="I7" s="22">
-        <f t="shared" si="1"/>
-        <v>5100</v>
+        <f>+F7*H7</f>
+        <v>8500</v>
       </c>
       <c r="J7" s="16">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f>+I7-G7</f>
+        <v>500</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="58"/>
       <c r="N7" s="48"/>
       <c r="O7" s="62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7" s="60"/>
@@ -12912,37 +14879,37 @@
         <v>24</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E8" s="16">
         <v>160</v>
       </c>
       <c r="F8" s="17">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="0"/>
-        <v>8000</v>
+        <f>SUM(E8*F8)</f>
+        <v>800</v>
       </c>
       <c r="H8" s="16">
         <v>170</v>
       </c>
       <c r="I8" s="22">
-        <f t="shared" si="1"/>
-        <v>8500</v>
+        <f>+F8*H8</f>
+        <v>850</v>
       </c>
       <c r="J8" s="16">
-        <f t="shared" si="2"/>
-        <v>500</v>
+        <f>+I8-G8</f>
+        <v>50</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="58"/>
       <c r="N8" s="48"/>
       <c r="O8" s="62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P8" s="60"/>
@@ -12955,40 +14922,40 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E9" s="16">
         <v>160</v>
       </c>
       <c r="F9" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="0"/>
-        <v>800</v>
+        <f>SUM(E9*F9)</f>
+        <v>4000</v>
       </c>
       <c r="H9" s="16">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="I9" s="22">
-        <f t="shared" si="1"/>
-        <v>850</v>
+        <f>+F9*H9</f>
+        <v>4750</v>
       </c>
       <c r="J9" s="16">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>+I9-G9</f>
+        <v>750</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="58"/>
       <c r="N9" s="48"/>
       <c r="O9" s="62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P9" s="60"/>
@@ -12999,38 +14966,42 @@
       <c r="A10" s="13">
         <v>6</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="16">
         <v>160</v>
       </c>
-      <c r="F10" s="17">
-        <v>25</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="F10" s="23">
+        <v>5</v>
+      </c>
+      <c r="G10" s="22">
         <f>SUM(E10*F10)</f>
-        <v>4000</v>
-      </c>
-      <c r="H10" s="16"/>
+        <v>800</v>
+      </c>
+      <c r="H10" s="16">
+        <v>190</v>
+      </c>
       <c r="I10" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="2"/>
-        <v>-4000</v>
-      </c>
-      <c r="K10" s="18"/>
+        <f>+F10*H10</f>
+        <v>950</v>
+      </c>
+      <c r="J10" s="22">
+        <f>+I10-G10</f>
+        <v>150</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="L10" s="19"/>
       <c r="M10" s="58"/>
       <c r="N10" s="48"/>
       <c r="O10" s="62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="60"/>
@@ -13042,31 +15013,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="54"/>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="16">
-        <v>160</v>
-      </c>
-      <c r="F11" s="23">
-        <v>5</v>
-      </c>
-      <c r="G11" s="22">
-        <f t="shared" ref="G11:G33" si="4">SUM(E11*F11)</f>
-        <v>800</v>
-      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <f t="shared" si="2"/>
-        <v>-800</v>
-      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="18"/>
       <c r="L11" s="56"/>
       <c r="M11" s="61"/>
@@ -13089,16 +15043,16 @@
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
       <c r="G12" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G11:G33" si="1">SUM(E12*F12)</f>
         <v>0</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I5:I14" si="2">+F12*H12</f>
         <v>0</v>
       </c>
       <c r="J12" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J5:J46" si="3">+I12-G12</f>
         <v>0</v>
       </c>
       <c r="K12" s="18"/>
@@ -13106,7 +15060,7 @@
       <c r="M12" s="61"/>
       <c r="N12" s="22"/>
       <c r="O12" s="62">
-        <f t="shared" ref="O12:P46" si="5">+M12-N12</f>
+        <f t="shared" ref="O12:P46" si="4">+M12-N12</f>
         <v>0</v>
       </c>
       <c r="P12" s="63"/>
@@ -13123,16 +15077,16 @@
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
       <c r="G13" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="18"/>
@@ -13140,7 +15094,7 @@
       <c r="M13" s="61"/>
       <c r="N13" s="22"/>
       <c r="O13" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P13" s="63"/>
@@ -13157,16 +15111,16 @@
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
       <c r="G14" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14" s="18"/>
@@ -13174,7 +15128,7 @@
       <c r="M14" s="61"/>
       <c r="N14" s="22"/>
       <c r="O14" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P14" s="63"/>
@@ -13191,7 +15145,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="23"/>
       <c r="G15" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="22"/>
@@ -13200,7 +15154,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K15" s="18"/>
@@ -13208,7 +15162,7 @@
       <c r="M15" s="61"/>
       <c r="N15" s="22"/>
       <c r="O15" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="63"/>
@@ -13225,7 +15179,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
       <c r="G16" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="22"/>
@@ -13234,7 +15188,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="18"/>
@@ -13242,7 +15196,7 @@
       <c r="M16" s="61"/>
       <c r="N16" s="22"/>
       <c r="O16" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="63"/>
@@ -13259,16 +15213,16 @@
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
       <c r="G17" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22">
-        <f t="shared" ref="I17:I46" si="6">+F17*H17</f>
+        <f t="shared" ref="I17:I46" si="5">+F17*H17</f>
         <v>0</v>
       </c>
       <c r="J17" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="18"/>
@@ -13276,7 +15230,7 @@
       <c r="M17" s="61"/>
       <c r="N17" s="22"/>
       <c r="O17" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="63"/>
@@ -13293,16 +15247,16 @@
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J18" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K18" s="18"/>
@@ -13310,7 +15264,7 @@
       <c r="M18" s="61"/>
       <c r="N18" s="22"/>
       <c r="O18" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P18" s="63"/>
@@ -13327,16 +15281,16 @@
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
       <c r="G19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J19" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="18"/>
@@ -13344,7 +15298,7 @@
       <c r="M19" s="61"/>
       <c r="N19" s="22"/>
       <c r="O19" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="63"/>
@@ -13361,16 +15315,16 @@
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
       <c r="G20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K20" s="18"/>
@@ -13378,7 +15332,7 @@
       <c r="M20" s="61"/>
       <c r="N20" s="22"/>
       <c r="O20" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="63"/>
@@ -13395,16 +15349,16 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23"/>
       <c r="G21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J21" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K21" s="18"/>
@@ -13412,7 +15366,7 @@
       <c r="M21" s="61"/>
       <c r="N21" s="22"/>
       <c r="O21" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="63"/>
@@ -13429,16 +15383,16 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
       <c r="G22" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J22" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K22" s="18"/>
@@ -13446,7 +15400,7 @@
       <c r="M22" s="61"/>
       <c r="N22" s="22"/>
       <c r="O22" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="63"/>
@@ -13463,16 +15417,16 @@
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
       <c r="G23" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J23" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K23" s="18"/>
@@ -13480,7 +15434,7 @@
       <c r="M23" s="61"/>
       <c r="N23" s="22"/>
       <c r="O23" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P23" s="63"/>
@@ -13497,16 +15451,16 @@
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
       <c r="G24" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J24" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="18"/>
@@ -13514,7 +15468,7 @@
       <c r="M24" s="61"/>
       <c r="N24" s="22"/>
       <c r="O24" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P24" s="63"/>
@@ -13531,16 +15485,16 @@
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
       <c r="G25" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J25" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K25" s="18"/>
@@ -13548,7 +15502,7 @@
       <c r="M25" s="61"/>
       <c r="N25" s="22"/>
       <c r="O25" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P25" s="63"/>
@@ -13565,16 +15519,16 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
       <c r="G26" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J26" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K26" s="18"/>
@@ -13582,7 +15536,7 @@
       <c r="M26" s="58"/>
       <c r="N26" s="48"/>
       <c r="O26" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P26" s="60"/>
@@ -13599,16 +15553,16 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23"/>
       <c r="G27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K27" s="18"/>
@@ -13616,7 +15570,7 @@
       <c r="M27" s="58"/>
       <c r="N27" s="48"/>
       <c r="O27" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27" s="60"/>
@@ -13633,16 +15587,16 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
       <c r="G28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J28" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K28" s="18"/>
@@ -13650,7 +15604,7 @@
       <c r="M28" s="58"/>
       <c r="N28" s="48"/>
       <c r="O28" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P28" s="60"/>
@@ -13667,16 +15621,16 @@
       <c r="E29" s="22"/>
       <c r="F29" s="23"/>
       <c r="G29" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J29" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29" s="18"/>
@@ -13684,7 +15638,7 @@
       <c r="M29" s="58"/>
       <c r="N29" s="48"/>
       <c r="O29" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29" s="60"/>
@@ -13701,16 +15655,16 @@
       <c r="E30" s="22"/>
       <c r="F30" s="23"/>
       <c r="G30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J30" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K30" s="18"/>
@@ -13718,7 +15672,7 @@
       <c r="M30" s="58"/>
       <c r="N30" s="48"/>
       <c r="O30" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P30" s="60"/>
@@ -13735,16 +15689,16 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
       <c r="G31" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J31" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K31" s="18"/>
@@ -13752,7 +15706,7 @@
       <c r="M31" s="58"/>
       <c r="N31" s="48"/>
       <c r="O31" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="60"/>
@@ -13769,16 +15723,16 @@
       <c r="E32" s="22"/>
       <c r="F32" s="23"/>
       <c r="G32" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J32" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K32" s="18"/>
@@ -13786,7 +15740,7 @@
       <c r="M32" s="58"/>
       <c r="N32" s="48"/>
       <c r="O32" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P32" s="60"/>
@@ -13803,16 +15757,16 @@
       <c r="E33" s="22"/>
       <c r="F33" s="17"/>
       <c r="G33" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J33" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K33" s="18"/>
@@ -13820,7 +15774,7 @@
       <c r="M33" s="58"/>
       <c r="N33" s="48"/>
       <c r="O33" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P33" s="60"/>
@@ -13837,16 +15791,16 @@
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
       <c r="G34" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G5:G46" si="6">SUM(E34*F34)</f>
         <v>0</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J34" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K34" s="18"/>
@@ -13854,7 +15808,7 @@
       <c r="M34" s="58"/>
       <c r="N34" s="48"/>
       <c r="O34" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34" s="60"/>
@@ -13871,16 +15825,16 @@
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J35" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K35" s="18"/>
@@ -13888,7 +15842,7 @@
       <c r="M35" s="58"/>
       <c r="N35" s="48"/>
       <c r="O35" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P35" s="60"/>
@@ -13905,16 +15859,16 @@
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
       <c r="G36" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J36" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="18"/>
@@ -13922,7 +15876,7 @@
       <c r="M36" s="58"/>
       <c r="N36" s="48"/>
       <c r="O36" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P36" s="60"/>
@@ -13939,16 +15893,16 @@
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K37" s="18"/>
@@ -13956,7 +15910,7 @@
       <c r="M37" s="58"/>
       <c r="N37" s="48"/>
       <c r="O37" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P37" s="60"/>
@@ -13973,16 +15927,16 @@
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J38" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K38" s="18"/>
@@ -13990,7 +15944,7 @@
       <c r="M38" s="58"/>
       <c r="N38" s="48"/>
       <c r="O38" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P38" s="60"/>
@@ -14007,16 +15961,16 @@
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J39" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K39" s="18"/>
@@ -14024,7 +15978,7 @@
       <c r="M39" s="58"/>
       <c r="N39" s="48"/>
       <c r="O39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P39" s="60"/>
@@ -14041,16 +15995,16 @@
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H40" s="16"/>
       <c r="I40" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J40" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K40" s="18"/>
@@ -14058,7 +16012,7 @@
       <c r="M40" s="58"/>
       <c r="N40" s="48"/>
       <c r="O40" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P40" s="60"/>
@@ -14075,16 +16029,16 @@
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K41" s="18"/>
@@ -14092,7 +16046,7 @@
       <c r="M41" s="58"/>
       <c r="N41" s="48"/>
       <c r="O41" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P41" s="60"/>
@@ -14109,16 +16063,16 @@
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J42" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K42" s="18"/>
@@ -14126,7 +16080,7 @@
       <c r="M42" s="58"/>
       <c r="N42" s="48"/>
       <c r="O42" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P42" s="60"/>
@@ -14143,16 +16097,16 @@
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J43" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K43" s="18"/>
@@ -14160,7 +16114,7 @@
       <c r="M43" s="58"/>
       <c r="N43" s="48"/>
       <c r="O43" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P43" s="60"/>
@@ -14177,16 +16131,16 @@
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
       <c r="G44" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J44" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K44" s="18"/>
@@ -14194,7 +16148,7 @@
       <c r="M44" s="58"/>
       <c r="N44" s="48"/>
       <c r="O44" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P44" s="60"/>
@@ -14211,16 +16165,16 @@
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
       <c r="G45" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J45" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K45" s="18"/>
@@ -14232,7 +16186,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P45" s="60">
@@ -14251,16 +16205,16 @@
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
       <c r="G46" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J46" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K46" s="18"/>
@@ -14268,11 +16222,11 @@
       <c r="M46" s="27"/>
       <c r="N46" s="27"/>
       <c r="O46" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P46" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q46" s="101"/>
@@ -14289,18 +16243,18 @@
       <c r="F47" s="94"/>
       <c r="G47" s="30">
         <f>SUBTOTAL(9,G5:G46)</f>
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="H47" s="31" t="s">
         <v>27</v>
       </c>
       <c r="I47" s="30">
         <f>SUBTOTAL(9,I5:I46)</f>
-        <v>36840</v>
+        <v>40550</v>
       </c>
       <c r="J47" s="30">
         <f>SUBTOTAL(9,J5:J46)</f>
-        <v>-2360</v>
+        <v>2950</v>
       </c>
       <c r="K47" s="32" t="s">
         <v>27</v>
@@ -14342,7 +16296,7 @@
       <c r="O48" s="96"/>
       <c r="P48" s="37">
         <f>+J47</f>
-        <v>-2360</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14388,7 +16342,7 @@
       <c r="O50" s="98"/>
       <c r="P50" s="41">
         <f>+P48+P49</f>
-        <v>-2360</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14408,7 +16362,7 @@
       <c r="O52" s="100"/>
       <c r="P52" s="42">
         <f>+P50+P51</f>
-        <v>-2360</v>
+        <v>2950</v>
       </c>
     </row>
   </sheetData>
@@ -14468,7 +16422,7 @@
     <mergeCell ref="Q46:R46"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:K46 K5:K10">
       <formula1>"นัดรับ,Facebook,Shopee,Line"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14482,1849 +16436,358 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="36" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:17" s="43" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-    </row>
-    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-    </row>
-    <row r="3" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-    </row>
-    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+    </row>
+    <row r="2" spans="1:17" s="43" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" s="43" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+    </row>
+    <row r="7" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="17">
+        <v>200</v>
+      </c>
+      <c r="E7" s="17">
+        <v>300</v>
+      </c>
+      <c r="F7" s="17">
+        <f>SUMIF(C$11:C$23,"ไฟเบอร์",F$11:F$23)</f>
+        <v>263</v>
+      </c>
+      <c r="G7" s="17">
+        <f>(D7+E7)-F7</f>
+        <v>237</v>
+      </c>
+      <c r="H7" s="17">
+        <v>50</v>
+      </c>
+      <c r="I7" s="17" t="b">
+        <f>G7&lt;H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="17">
+        <v>50</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
+        <f>SUMIF(C$11:C$23,"กาแฟ",F$11:F$23)</f>
+        <v>30</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" ref="G8:G9" si="0">(D8+E8)-F8</f>
+        <v>20</v>
+      </c>
+      <c r="H8" s="17">
+        <v>20</v>
+      </c>
+      <c r="I8" s="17" t="b">
+        <f t="shared" ref="I8:I9" si="1">G8&lt;H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="17">
+        <v>50</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
+        <f>SUMIF(C$11:C$23,"โกโก้",F$11:F$23)</f>
+        <v>72</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+      <c r="H9" s="17">
+        <v>30</v>
+      </c>
+      <c r="I9" s="17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="116"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+    </row>
+    <row r="11" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="118">
+        <v>44652</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="18" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="118">
+        <v>44682</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="17">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="90"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+    </row>
+    <row r="22" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="16">
-        <v>160</v>
-      </c>
-      <c r="F5" s="17">
-        <v>10</v>
-      </c>
-      <c r="G5" s="16">
-        <f t="shared" ref="G5:G46" si="0">SUM(E5*F5)</f>
-        <v>1600</v>
-      </c>
-      <c r="H5" s="16">
-        <v>199</v>
-      </c>
-      <c r="I5" s="22">
-        <f t="shared" ref="I5:I14" si="1">+F5*H5</f>
-        <v>1990</v>
-      </c>
-      <c r="J5" s="16">
-        <f t="shared" ref="J5:J46" si="2">+I5-G5</f>
-        <v>390</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="62">
-        <f t="shared" ref="O5:O10" si="3">+M5-N5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="92"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="16">
-        <v>160</v>
-      </c>
-      <c r="F6" s="17">
-        <v>120</v>
-      </c>
-      <c r="G6" s="16">
-        <f t="shared" si="0"/>
-        <v>19200</v>
-      </c>
-      <c r="H6" s="16">
-        <v>170</v>
-      </c>
-      <c r="I6" s="22">
-        <f t="shared" si="1"/>
-        <v>20400</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="92"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="16">
-        <v>160</v>
-      </c>
-      <c r="F7" s="17">
-        <v>30</v>
-      </c>
-      <c r="G7" s="16">
-        <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-      <c r="H7" s="16">
-        <v>170</v>
-      </c>
-      <c r="I7" s="22">
-        <f t="shared" si="1"/>
-        <v>5100</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="92"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
+      <c r="F22" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="16">
-        <v>160</v>
-      </c>
-      <c r="F8" s="17">
-        <v>50</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="H8" s="16">
-        <v>170</v>
-      </c>
-      <c r="I8" s="22">
-        <f t="shared" si="1"/>
-        <v>8500</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="92"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="F23" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="16">
-        <v>160</v>
-      </c>
-      <c r="F9" s="17">
-        <v>5</v>
-      </c>
-      <c r="G9" s="16">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="H9" s="16">
-        <v>170</v>
-      </c>
-      <c r="I9" s="22">
-        <f t="shared" si="1"/>
-        <v>850</v>
-      </c>
-      <c r="J9" s="16">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="92"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16">
-        <f>SUM(E10*F10)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-    </row>
-    <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>7</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22">
-        <f t="shared" ref="G11:G33" si="4">SUM(E11*F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="62">
-        <f>+M11-N11</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="86"/>
-    </row>
-    <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>8</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="62">
-        <f t="shared" ref="O12:P46" si="5">+M12-N12</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="86"/>
-    </row>
-    <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="86"/>
-    </row>
-    <row r="14" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>10</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="86"/>
-    </row>
-    <row r="15" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>11</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22">
-        <f>+F15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="86"/>
-    </row>
-    <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>12</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22">
-        <f>+F16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="86"/>
-    </row>
-    <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>13</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22">
-        <f t="shared" ref="I17:I46" si="6">+F17*H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="86"/>
-    </row>
-    <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>14</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="86"/>
-    </row>
-    <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>15</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="86"/>
-    </row>
-    <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>16</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="86"/>
-    </row>
-    <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>17</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="86"/>
-    </row>
-    <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>18</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="86"/>
-    </row>
-    <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>19</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="86"/>
-    </row>
-    <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>20</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="86"/>
-    </row>
-    <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>21</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="86"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>22</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="92"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>23</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="92"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>24</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>25</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="92"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>26</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>27</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="92"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>28</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="92"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>29</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="92"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>30</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="92"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>31</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="92"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>32</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="92"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>33</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="18"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="92"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>34</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="92"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>35</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="92"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>36</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="92"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>37</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="92"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>38</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="92"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>39</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="18"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="92"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>40</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="92"/>
-    </row>
-    <row r="45" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>41</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="58">
-        <v>0</v>
-      </c>
-      <c r="N45" s="48">
-        <v>0</v>
-      </c>
-      <c r="O45" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="92"/>
-    </row>
-    <row r="46" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
-        <v>42</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="102"/>
-    </row>
-    <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="30">
-        <f>SUBTOTAL(9,G5:G46)</f>
-        <v>34400</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="30">
-        <f>SUBTOTAL(9,I5:I46)</f>
-        <v>36840</v>
-      </c>
-      <c r="J47" s="30">
-        <f>SUBTOTAL(9,J5:J46)</f>
-        <v>2440</v>
-      </c>
-      <c r="K47" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L47" s="30">
-        <f>SUBTOTAL(9,L5:L46)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="30">
-        <f>SUBTOTAL(9,M5:M46)</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="30">
-        <f>SUBTOTAL(9,N5:N46)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="33">
-        <f>SUBTOTAL(9,O5:O46)</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="33">
-        <f>SUBTOTAL(9,P5:P46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="N48" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="O48" s="96"/>
-      <c r="P48" s="37">
-        <f>+J47</f>
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="O49" s="98"/>
-      <c r="P49" s="38">
-        <f>+O47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="O50" s="98"/>
-      <c r="P50" s="41">
-        <f>+P48+P49</f>
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N51" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="O51" s="98"/>
-      <c r="P51" s="38">
-        <f>+P47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="O52" s="100"/>
-      <c r="P52" s="42">
-        <f>+P50+P51</f>
-        <v>2440</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K52"/>
-  <mergeCells count="52">
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
+  <mergeCells count="11">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K46">
-      <formula1>"นัดรับ,Facebook,Shopee,Line"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <conditionalFormatting sqref="I7:I9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>วัตถุดิบ!$B$9:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>